--- a/dataschema_ProPASS.xlsx
+++ b/dataschema_ProPASS.xlsx
@@ -1,43 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atrottier\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ca058780ebd4867/ProPASS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733C0538-ED00-4CB1-B4D5-A385D7AC19C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_F25DC773A252ABDACC10480B215F768E5ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B8C66AC-0D35-4850-8830-93969643438E}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{322D3FE6-B17B-470C-BFCB-D647CF67067C}"/>
+    <workbookView xWindow="28680" yWindow="-7080" windowWidth="16440" windowHeight="28320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
     <sheet name="Categories" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="349">
   <si>
     <t>index</t>
   </si>
@@ -87,6 +76,21 @@
     <t>text</t>
   </si>
   <si>
+    <t>adm_date</t>
+  </si>
+  <si>
+    <t>Completion date</t>
+  </si>
+  <si>
+    <t>Date on which the questionnaire was completed</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>yyyy-mm-dd</t>
+  </si>
+  <si>
     <t>participant</t>
   </si>
   <si>
@@ -105,9 +109,663 @@
     <t>integer</t>
   </si>
   <si>
+    <t>sdc_age</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Age of the participant at the time of questionnaire completion</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>sdc_education</t>
+  </si>
+  <si>
+    <t>Level of education</t>
+  </si>
+  <si>
+    <t>Participant's level of education at the time of questionnaire completion</t>
+  </si>
+  <si>
+    <t>sdc_ethnicity</t>
+  </si>
+  <si>
+    <t>Ethnicity</t>
+  </si>
+  <si>
+    <t>Participant's ethnicity</t>
+  </si>
+  <si>
+    <t>sdc_ethnicity_caucasian</t>
+  </si>
+  <si>
+    <t>Ethnicity - Caucasian</t>
+  </si>
+  <si>
+    <t>Indicator of whether the participant is caucasian or not</t>
+  </si>
+  <si>
+    <t>sdc_employment_status</t>
+  </si>
+  <si>
+    <t>Current employment status</t>
+  </si>
+  <si>
+    <t>Indicator of whether the participant is currently employed or unemployed</t>
+  </si>
+  <si>
+    <t>sdc_employment_pattern</t>
+  </si>
+  <si>
+    <t>Current employment pattern</t>
+  </si>
+  <si>
+    <t>Indicator of whether the participant is currently employed full-time or part-time</t>
+  </si>
+  <si>
+    <t>sdc_work_hours</t>
+  </si>
+  <si>
+    <t>Number of hours of work per week</t>
+  </si>
+  <si>
+    <t>Number of hours worked per week</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>sdc_employment_description</t>
+  </si>
+  <si>
+    <t>Employment description</t>
+  </si>
+  <si>
+    <t>Participant's employment description</t>
+  </si>
+  <si>
+    <t>sdc_retirement_status</t>
+  </si>
+  <si>
+    <t>Current retirement status</t>
+  </si>
+  <si>
+    <t>Indicator of whether the participant is currently retired or not</t>
+  </si>
+  <si>
+    <t>sdc_married</t>
+  </si>
+  <si>
+    <t>Ever married</t>
+  </si>
+  <si>
+    <t>Indicator of whether the participant has ever been married or not</t>
+  </si>
+  <si>
+    <t>sdc_relationship</t>
+  </si>
+  <si>
+    <t>Currently in a relationship</t>
+  </si>
+  <si>
+    <t>Indicator of whether the participant is in a relationship or not</t>
+  </si>
+  <si>
+    <t>sdc_location</t>
+  </si>
+  <si>
+    <t>Urban or rural location</t>
+  </si>
+  <si>
+    <t>pm_height</t>
+  </si>
+  <si>
+    <t>Participant's height</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>pm_height_method</t>
+  </si>
+  <si>
+    <t>Method used to measure the height</t>
+  </si>
+  <si>
+    <t>pm_weight</t>
+  </si>
+  <si>
+    <t>Participant's weight</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>pm_weight_method</t>
+  </si>
+  <si>
+    <t>Method used to measure the weight</t>
+  </si>
+  <si>
+    <t>pm_bmi</t>
+  </si>
+  <si>
+    <t>Body mass index</t>
+  </si>
+  <si>
+    <t>kg/m2</t>
+  </si>
+  <si>
+    <t>pm_waist_circ</t>
+  </si>
+  <si>
+    <t>Waist circumference</t>
+  </si>
+  <si>
+    <t>pm_waist_circ_method</t>
+  </si>
+  <si>
+    <t>Method used to measure the waist circumference</t>
+  </si>
+  <si>
+    <t>pm_bodyfat_perc</t>
+  </si>
+  <si>
+    <t>Body fat percentage</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>pm_bodyfat_perc_method</t>
+  </si>
+  <si>
+    <t>Method used to measure the body fat percentage</t>
+  </si>
+  <si>
+    <t>pm_systo_bp</t>
+  </si>
+  <si>
+    <t>Systolic blood pressure</t>
+  </si>
+  <si>
+    <t>Systolic blood pressure, average of all available measures</t>
+  </si>
+  <si>
+    <t>mmHg</t>
+  </si>
+  <si>
+    <t>pm_diasto_bp</t>
+  </si>
+  <si>
+    <t>Diastolic blood pressure</t>
+  </si>
+  <si>
+    <t>Diastolic blood pressure, average of all available measures</t>
+  </si>
+  <si>
+    <t>pm_resting_heart_rate</t>
+  </si>
+  <si>
+    <t>Resting heart rate</t>
+  </si>
+  <si>
+    <t>beats/minute</t>
+  </si>
+  <si>
+    <t>pm_cardiorespiratoy_fitness</t>
+  </si>
+  <si>
+    <t>Cardiorespiratoy fitness</t>
+  </si>
+  <si>
+    <t>ml/min/kg</t>
+  </si>
+  <si>
+    <t>lab_blood_fasting</t>
+  </si>
+  <si>
+    <t>Blood sampling fasting</t>
+  </si>
+  <si>
+    <t>lab_red_blood_cell_count</t>
+  </si>
+  <si>
+    <t>Red blood cell count</t>
+  </si>
+  <si>
+    <t>10^12/L</t>
+  </si>
+  <si>
+    <t>lab_HbA1c</t>
+  </si>
+  <si>
+    <t>Glycated hemoglobin (A1c)</t>
+  </si>
+  <si>
+    <t>mmol/mol</t>
+  </si>
+  <si>
+    <t>lab_chol_tot</t>
+  </si>
+  <si>
+    <t>Total cholesterol</t>
+  </si>
+  <si>
+    <t>mmol/L</t>
+  </si>
+  <si>
+    <t>lab_chol_hdl</t>
+  </si>
+  <si>
+    <t>HDL cholesterol</t>
+  </si>
+  <si>
+    <t>lab_chol_ldl</t>
+  </si>
+  <si>
+    <t>LDL cholesterol</t>
+  </si>
+  <si>
+    <t>lab_chol_ldl_calculated</t>
+  </si>
+  <si>
+    <t>Calculated LDL cholesterol</t>
+  </si>
+  <si>
+    <t>lab_trigly</t>
+  </si>
+  <si>
+    <t>Triglycerides</t>
+  </si>
+  <si>
+    <t>lab_c_reac_pro</t>
+  </si>
+  <si>
+    <t>C-reactive protein</t>
+  </si>
+  <si>
+    <t>µg/ml</t>
+  </si>
+  <si>
+    <t>nut_fruit_quantity</t>
+  </si>
+  <si>
+    <t>Fruit intake quantity</t>
+  </si>
+  <si>
+    <t>Fruit Intake quantity</t>
+  </si>
+  <si>
+    <t>g/day</t>
+  </si>
+  <si>
+    <t>nut_fruit_frequency</t>
+  </si>
+  <si>
+    <t>Fruit intake frequency</t>
+  </si>
+  <si>
+    <t>Fruit Intake frequency</t>
+  </si>
+  <si>
+    <t>nut_vegetable_quantity</t>
+  </si>
+  <si>
+    <t>Vegetable intake quantity</t>
+  </si>
+  <si>
+    <t>Vegetable Intake quantity</t>
+  </si>
+  <si>
+    <t>nut_vegetable_frequency</t>
+  </si>
+  <si>
+    <t>Vegetable intake frequency</t>
+  </si>
+  <si>
+    <t>Vegetable Intake frequency</t>
+  </si>
+  <si>
+    <t>nut_energy_tot</t>
+  </si>
+  <si>
+    <t>Total energy intake</t>
+  </si>
+  <si>
+    <t>kcal/day</t>
+  </si>
+  <si>
+    <t>alc_alcohol</t>
+  </si>
+  <si>
+    <t>Alcohol intake</t>
+  </si>
+  <si>
+    <t>Alcohol intake per week</t>
+  </si>
+  <si>
+    <t>g/week</t>
+  </si>
+  <si>
+    <t>alc_alcohol_frequency</t>
+  </si>
+  <si>
+    <t>Frequency of alcohol consumption</t>
+  </si>
+  <si>
+    <t>smk_smoking_status</t>
+  </si>
+  <si>
+    <t>Smoking status</t>
+  </si>
+  <si>
+    <t>Smoking Status</t>
+  </si>
+  <si>
+    <t>smk_smoking_quantity</t>
+  </si>
+  <si>
+    <t>Number cigarettes smoked per week</t>
+  </si>
+  <si>
+    <t>cigarettes/week</t>
+  </si>
+  <si>
+    <t>lsb_rated_health</t>
+  </si>
+  <si>
+    <t>Self Rated Health</t>
+  </si>
+  <si>
+    <t>dis_cvd</t>
+  </si>
+  <si>
+    <t>Cadio vascular diseases</t>
+  </si>
+  <si>
+    <t>CVD (ischemic heart disease, stroke, hypertension, heart failure, atrial fibrillation?, thrombosis?)</t>
+  </si>
+  <si>
+    <t>dis_musculoskeletal</t>
+  </si>
+  <si>
+    <t>Musculoskeletal diseases</t>
+  </si>
+  <si>
+    <t>dis_diabetes</t>
+  </si>
+  <si>
+    <t>Diabetes</t>
+  </si>
+  <si>
+    <t>dis_diabetes_type</t>
+  </si>
+  <si>
+    <t>Diabetes type</t>
+  </si>
+  <si>
+    <t>Diabetes type (excluding gestational diabetes)</t>
+  </si>
+  <si>
+    <t>dis_cancer</t>
+  </si>
+  <si>
+    <t>Cancer</t>
+  </si>
+  <si>
+    <t>dis_hypercholesteromia</t>
+  </si>
+  <si>
+    <t>Diagnosed hypercholesteromia</t>
+  </si>
+  <si>
+    <t>med_insulin</t>
+  </si>
+  <si>
+    <t>Insulin treatment at present time</t>
+  </si>
+  <si>
+    <t>Indicator of whether the participant is taking insulin or not at present time</t>
+  </si>
+  <si>
+    <t>med_lipid_lowering</t>
+  </si>
+  <si>
+    <t>Current use of lipid lowering medication</t>
+  </si>
+  <si>
+    <t>Use of lipid lowering medication</t>
+  </si>
+  <si>
+    <t>med_blood_pressure</t>
+  </si>
+  <si>
+    <t>Current use of medication to manage blood pressure</t>
+  </si>
+  <si>
+    <t>Use of medication to manage blood pressure</t>
+  </si>
+  <si>
+    <t>med_diabetes</t>
+  </si>
+  <si>
+    <t>Current use of medication for diabetes</t>
+  </si>
+  <si>
+    <t>Use of medication for diabetes</t>
+  </si>
+  <si>
+    <t>cog_depression</t>
+  </si>
+  <si>
+    <t>Depression</t>
+  </si>
+  <si>
+    <t>Indicator of whether the participant has ever being diagnosed with depression or not</t>
+  </si>
+  <si>
+    <t>cog_dep_cesd20</t>
+  </si>
+  <si>
+    <t>CES-D (20 items) score</t>
+  </si>
+  <si>
+    <t>cog_dep_cesd10</t>
+  </si>
+  <si>
+    <t>CES-D (10 items) score</t>
+  </si>
+  <si>
+    <t>cog_dep_malaise</t>
+  </si>
+  <si>
+    <t>Malaise inventory (9 items) score</t>
+  </si>
+  <si>
+    <t>cog_dep_kessler</t>
+  </si>
+  <si>
+    <t>Kessler psychological distress score</t>
+  </si>
+  <si>
+    <t>cog_dep_phq9</t>
+  </si>
+  <si>
+    <t>PHQ-9 score</t>
+  </si>
+  <si>
+    <t>cog_mci_mmse_score</t>
+  </si>
+  <si>
+    <t>MMSE score</t>
+  </si>
+  <si>
+    <t>cog_mci_moca_score</t>
+  </si>
+  <si>
+    <t>MoCa score</t>
+  </si>
+  <si>
+    <t>cog_alzheimers_dementia</t>
+  </si>
+  <si>
+    <t>Alzheimers/Dementia</t>
+  </si>
+  <si>
+    <t>sleep_duration</t>
+  </si>
+  <si>
+    <t>Usual number of hours of sleep - continuous</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>sleep_duration_cat</t>
+  </si>
+  <si>
+    <t>Usual number of hours of sleep - categorical</t>
+  </si>
+  <si>
+    <t>sleep_difficulties</t>
+  </si>
+  <si>
+    <t>Indicator of whether the participant has difficulties sleeping or not</t>
+  </si>
+  <si>
+    <t>sed_beh_tv_week_all</t>
+  </si>
+  <si>
+    <t>Daily TV viewing during the week</t>
+  </si>
+  <si>
+    <t>sed_beh_tv_week_days</t>
+  </si>
+  <si>
+    <t>Daily TV viewing during week days</t>
+  </si>
+  <si>
+    <t>sed_beh_tv_weekend_days</t>
+  </si>
+  <si>
+    <t>Daily TV viewing during weekend days</t>
+  </si>
+  <si>
+    <t>sed_beh_comp_use</t>
+  </si>
+  <si>
+    <t>Computer use</t>
+  </si>
+  <si>
+    <t>Time spent using a computer per day on weekdays excluding computer use at work</t>
+  </si>
+  <si>
+    <t>sed_beh_video_games</t>
+  </si>
+  <si>
+    <t>Video games</t>
+  </si>
+  <si>
+    <t>Time spent playing video games per day</t>
+  </si>
+  <si>
+    <t>sed_beh_reading</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Time spent reading per day</t>
+  </si>
+  <si>
+    <t>sed_beh_sitting_work</t>
+  </si>
+  <si>
+    <t>Sitting at work</t>
+  </si>
+  <si>
+    <t>Time spent sitting at work per day</t>
+  </si>
+  <si>
+    <t>sed_beh_total_sitting</t>
+  </si>
+  <si>
+    <t>Total sitting time</t>
+  </si>
+  <si>
+    <t>Overall time spent sitting per day</t>
+  </si>
+  <si>
+    <t>sed_beh_total_sitting_cat</t>
+  </si>
+  <si>
+    <t>Total sitting time - categorical</t>
+  </si>
+  <si>
+    <t>Overall time spent sitting per day - categorical</t>
+  </si>
+  <si>
+    <t>phy_walking</t>
+  </si>
+  <si>
+    <t>Walking for leisure</t>
+  </si>
+  <si>
+    <t>Frequency of walking for leisure per week</t>
+  </si>
+  <si>
+    <t>phy_occupational_pa</t>
+  </si>
+  <si>
+    <t>Occupational physical activity</t>
+  </si>
+  <si>
+    <t>phy_sport_participation</t>
+  </si>
+  <si>
+    <t>Sport participation</t>
+  </si>
+  <si>
+    <t>Indicator of whether the participant is participating in sport activity or not</t>
+  </si>
+  <si>
+    <t>phy_active_commuting</t>
+  </si>
+  <si>
+    <t>Active commuting</t>
+  </si>
+  <si>
+    <t>Indicator of whether the participant is engaging in active commuting</t>
+  </si>
+  <si>
+    <t>phy_leisure_time</t>
+  </si>
+  <si>
+    <t>Leisure-time physical activity, including sport</t>
+  </si>
+  <si>
+    <t>Indicator of whether the participant is engaging in physical activity during leisure-time (including sport)</t>
+  </si>
+  <si>
+    <t>phy_mobility_limitation_SF36</t>
+  </si>
+  <si>
+    <t>Physical function SF36 subscale score</t>
+  </si>
+  <si>
+    <t>Total score of the physical function subscale of SF36</t>
+  </si>
+  <si>
     <t>project</t>
   </si>
   <si>
+    <t>table</t>
+  </si>
+  <si>
     <t>variable</t>
   </si>
   <si>
@@ -118,6 +776,303 @@
   </si>
   <si>
     <t>Male</t>
+  </si>
+  <si>
+    <t>None or lower than high school</t>
+  </si>
+  <si>
+    <t>High school qualifications</t>
+  </si>
+  <si>
+    <t>Further education qualifications</t>
+  </si>
+  <si>
+    <t>University degree and higher</t>
+  </si>
+  <si>
+    <t>Caucasian or White (Eg: German, Irish, English, Italian, Polish, French, etc)</t>
+  </si>
+  <si>
+    <t>Black or African American (Eg: African American, Jamaican, Haitian, Nigerian, Ethiopian, Somalian, etc)</t>
+  </si>
+  <si>
+    <t>Asian (Eg: Chinese, Filipino, Asian Indian, Vietnamese, Korean, Japanese, etc)</t>
+  </si>
+  <si>
+    <t>Mixed ethnicity and Other</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Unemployed</t>
+  </si>
+  <si>
+    <t>Employed</t>
+  </si>
+  <si>
+    <t>Not retired</t>
+  </si>
+  <si>
+    <t>Retired</t>
+  </si>
+  <si>
+    <t>Part-time</t>
+  </si>
+  <si>
+    <t>Full-time</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>Skipped</t>
+  </si>
+  <si>
+    <t>Never married</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Formerly married</t>
+  </si>
+  <si>
+    <t>Not in a relationship</t>
+  </si>
+  <si>
+    <t>In a relationship</t>
+  </si>
+  <si>
+    <t>Rural</t>
+  </si>
+  <si>
+    <t>Urban</t>
+  </si>
+  <si>
+    <t>Self-reported</t>
+  </si>
+  <si>
+    <t>Measured by professional</t>
+  </si>
+  <si>
+    <t>Non-fasted</t>
+  </si>
+  <si>
+    <t>Short-fast (&lt;=4h)</t>
+  </si>
+  <si>
+    <t>Long fast (&gt;4h)</t>
+  </si>
+  <si>
+    <t>Rarely</t>
+  </si>
+  <si>
+    <t>Several times a week</t>
+  </si>
+  <si>
+    <t>Every day</t>
+  </si>
+  <si>
+    <t>Never/almost never</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>Daily/almost daily</t>
+  </si>
+  <si>
+    <t>Never smoked</t>
+  </si>
+  <si>
+    <t>Previously smoked</t>
+  </si>
+  <si>
+    <t>Currently smoke</t>
+  </si>
+  <si>
+    <t>Poor/Very Poor</t>
+  </si>
+  <si>
+    <t>Moderate/Fair</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Very good/Excellent</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>Type 1</t>
+  </si>
+  <si>
+    <t>Type 2</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Not taking insulin at present time</t>
+  </si>
+  <si>
+    <t>Taking insulin at present time</t>
+  </si>
+  <si>
+    <t>Has not been diagnosed with Alzheimers or other dementia</t>
+  </si>
+  <si>
+    <t>Has been diagnosed with Alzheimers or other dementia</t>
+  </si>
+  <si>
+    <t>0 to 6 hours</t>
+  </si>
+  <si>
+    <t>6.5 hours</t>
+  </si>
+  <si>
+    <t>7 hours</t>
+  </si>
+  <si>
+    <t>7.5 hours</t>
+  </si>
+  <si>
+    <t>8 hours</t>
+  </si>
+  <si>
+    <t>8.5 hours</t>
+  </si>
+  <si>
+    <t>9 hours</t>
+  </si>
+  <si>
+    <t>9.5 hours</t>
+  </si>
+  <si>
+    <t>10 hours or more</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>Some difficulties</t>
+  </si>
+  <si>
+    <t>Less or equal to 1 hour per day</t>
+  </si>
+  <si>
+    <t>More than 1 hour to 3 hours per day</t>
+  </si>
+  <si>
+    <t>More than 3 hours per day</t>
+  </si>
+  <si>
+    <t>0 to less than 1 hour per day</t>
+  </si>
+  <si>
+    <t>1 to less than 2 hours per day</t>
+  </si>
+  <si>
+    <t>2 to less than 3 hours per day</t>
+  </si>
+  <si>
+    <t>3 to less than 4 hours per day</t>
+  </si>
+  <si>
+    <t>4 to less than 5 hours per day</t>
+  </si>
+  <si>
+    <t>5 to less than 6 hours per day</t>
+  </si>
+  <si>
+    <t>6 to less than 7 hours per day</t>
+  </si>
+  <si>
+    <t>7 to less than 8 hours per day</t>
+  </si>
+  <si>
+    <t>8 to less than 9 hours per day</t>
+  </si>
+  <si>
+    <t>9 to less than 10 hours per day</t>
+  </si>
+  <si>
+    <t>10 hours or more per day</t>
+  </si>
+  <si>
+    <t>Less than 1 hour per day</t>
+  </si>
+  <si>
+    <t>1 to 3 hours per day</t>
+  </si>
+  <si>
+    <t>0 to 1 hour per day</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>1 to 2 hours per day</t>
+  </si>
+  <si>
+    <t>3 to 4 hours per day</t>
+  </si>
+  <si>
+    <t>5 to 6 hours per day</t>
+  </si>
+  <si>
+    <t>7 to 8 hours per day</t>
+  </si>
+  <si>
+    <t>9 hours or more per day</t>
+  </si>
+  <si>
+    <t>sed_beh_sitting_tot_cat</t>
+  </si>
+  <si>
+    <t>Not at all</t>
+  </si>
+  <si>
+    <t>One to less than 3 hours per day</t>
+  </si>
+  <si>
+    <t>Three to less than 5 hours per day</t>
+  </si>
+  <si>
+    <t>Five to less than 7 hours per day</t>
+  </si>
+  <si>
+    <t>Seven hours or more per day</t>
+  </si>
+  <si>
+    <t>Less than once a week</t>
+  </si>
+  <si>
+    <t>1 to 5 times a week</t>
+  </si>
+  <si>
+    <t>6 times or more a week</t>
+  </si>
+  <si>
+    <t>Mostly sedentary-no physical demands</t>
+  </si>
+  <si>
+    <t>Mostly standing or walking</t>
+  </si>
+  <si>
+    <t>Standing and walking with lifting or carrying</t>
+  </si>
+  <si>
+    <t>Strenuous physical work</t>
   </si>
 </sst>
 </file>
@@ -173,9 +1128,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -189,7 +1144,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -201,7 +1156,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -213,7 +1168,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -248,23 +1203,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -300,26 +1238,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -461,18 +1382,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F6046F-AAFF-48C5-B6F4-1BFE572E6ED7}">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,28 +1455,2238 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>89</v>
+      </c>
+      <c r="I27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" t="s">
+        <v>95</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" t="s">
+        <v>98</v>
+      </c>
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" t="s">
+        <v>106</v>
+      </c>
+      <c r="I32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" t="s">
+        <v>109</v>
+      </c>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" t="s">
+        <v>109</v>
+      </c>
+      <c r="I34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" t="s">
+        <v>109</v>
+      </c>
+      <c r="I35" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" t="s">
+        <v>109</v>
+      </c>
+      <c r="I36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" t="s">
+        <v>109</v>
+      </c>
+      <c r="I37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" t="s">
+        <v>120</v>
+      </c>
+      <c r="I38" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F39" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" t="s">
+        <v>124</v>
+      </c>
+      <c r="I39" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" t="s">
+        <v>127</v>
+      </c>
+      <c r="F40" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F41" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s">
+        <v>124</v>
+      </c>
+      <c r="I41" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" t="s">
+        <v>133</v>
+      </c>
+      <c r="F42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" t="s">
+        <v>135</v>
+      </c>
+      <c r="E43" t="s">
+        <v>135</v>
+      </c>
+      <c r="F43" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" t="s">
+        <v>136</v>
+      </c>
+      <c r="I43" t="s">
+        <v>21</v>
+      </c>
+      <c r="K43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" t="s">
+        <v>140</v>
+      </c>
+      <c r="I44" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" t="s">
+        <v>142</v>
+      </c>
+      <c r="F45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" t="s">
+        <v>144</v>
+      </c>
+      <c r="E46" t="s">
+        <v>145</v>
+      </c>
+      <c r="F46" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" t="s">
+        <v>147</v>
+      </c>
+      <c r="E47" t="s">
+        <v>147</v>
+      </c>
+      <c r="F47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s">
+        <v>148</v>
+      </c>
+      <c r="I47" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" t="s">
+        <v>150</v>
+      </c>
+      <c r="E48" t="s">
+        <v>150</v>
+      </c>
+      <c r="F48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" t="s">
+        <v>21</v>
+      </c>
+      <c r="K48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" t="s">
+        <v>152</v>
+      </c>
+      <c r="E49" t="s">
+        <v>153</v>
+      </c>
+      <c r="F49" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" t="s">
+        <v>21</v>
+      </c>
+      <c r="K49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>154</v>
+      </c>
+      <c r="D50" t="s">
+        <v>155</v>
+      </c>
+      <c r="E50" t="s">
+        <v>155</v>
+      </c>
+      <c r="F50" t="s">
+        <v>26</v>
+      </c>
+      <c r="I50" t="s">
+        <v>21</v>
+      </c>
+      <c r="K50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>156</v>
+      </c>
+      <c r="D51" t="s">
+        <v>157</v>
+      </c>
+      <c r="E51" t="s">
+        <v>157</v>
+      </c>
+      <c r="F51" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>158</v>
+      </c>
+      <c r="D52" t="s">
+        <v>159</v>
+      </c>
+      <c r="E52" t="s">
+        <v>160</v>
+      </c>
+      <c r="F52" t="s">
+        <v>26</v>
+      </c>
+      <c r="I52" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>161</v>
+      </c>
+      <c r="D53" t="s">
+        <v>162</v>
+      </c>
+      <c r="E53" t="s">
+        <v>162</v>
+      </c>
+      <c r="F53" t="s">
+        <v>26</v>
+      </c>
+      <c r="I53" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
+        <v>163</v>
+      </c>
+      <c r="D54" t="s">
+        <v>164</v>
+      </c>
+      <c r="E54" t="s">
+        <v>164</v>
+      </c>
+      <c r="F54" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" t="s">
+        <v>166</v>
+      </c>
+      <c r="E55" t="s">
+        <v>167</v>
+      </c>
+      <c r="F55" t="s">
+        <v>26</v>
+      </c>
+      <c r="I55" t="s">
+        <v>21</v>
+      </c>
+      <c r="K55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>168</v>
+      </c>
+      <c r="D56" t="s">
+        <v>169</v>
+      </c>
+      <c r="E56" t="s">
+        <v>170</v>
+      </c>
+      <c r="F56" t="s">
+        <v>26</v>
+      </c>
+      <c r="I56" t="s">
+        <v>21</v>
+      </c>
+      <c r="K56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57" t="s">
+        <v>172</v>
+      </c>
+      <c r="E57" t="s">
+        <v>173</v>
+      </c>
+      <c r="F57" t="s">
+        <v>26</v>
+      </c>
+      <c r="I57" t="s">
+        <v>21</v>
+      </c>
+      <c r="K57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>174</v>
+      </c>
+      <c r="D58" t="s">
+        <v>175</v>
+      </c>
+      <c r="E58" t="s">
+        <v>176</v>
+      </c>
+      <c r="F58" t="s">
+        <v>26</v>
+      </c>
+      <c r="I58" t="s">
+        <v>21</v>
+      </c>
+      <c r="K58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>177</v>
+      </c>
+      <c r="D59" t="s">
+        <v>178</v>
+      </c>
+      <c r="E59" t="s">
+        <v>179</v>
+      </c>
+      <c r="F59" t="s">
+        <v>26</v>
+      </c>
+      <c r="I59" t="s">
+        <v>21</v>
+      </c>
+      <c r="K59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s">
+        <v>180</v>
+      </c>
+      <c r="D60" t="s">
+        <v>181</v>
+      </c>
+      <c r="E60" t="s">
+        <v>181</v>
+      </c>
+      <c r="F60" t="s">
+        <v>26</v>
+      </c>
+      <c r="I60" t="s">
+        <v>21</v>
+      </c>
+      <c r="K60" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
+        <v>182</v>
+      </c>
+      <c r="D61" t="s">
+        <v>183</v>
+      </c>
+      <c r="E61" t="s">
+        <v>183</v>
+      </c>
+      <c r="F61" t="s">
+        <v>26</v>
+      </c>
+      <c r="I61" t="s">
+        <v>21</v>
+      </c>
+      <c r="K61" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>184</v>
+      </c>
+      <c r="D62" t="s">
+        <v>185</v>
+      </c>
+      <c r="E62" t="s">
+        <v>185</v>
+      </c>
+      <c r="F62" t="s">
+        <v>26</v>
+      </c>
+      <c r="I62" t="s">
+        <v>21</v>
+      </c>
+      <c r="K62" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>186</v>
+      </c>
+      <c r="D63" t="s">
+        <v>187</v>
+      </c>
+      <c r="E63" t="s">
+        <v>187</v>
+      </c>
+      <c r="F63" t="s">
+        <v>26</v>
+      </c>
+      <c r="I63" t="s">
+        <v>21</v>
+      </c>
+      <c r="K63" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" t="s">
+        <v>188</v>
+      </c>
+      <c r="D64" t="s">
+        <v>189</v>
+      </c>
+      <c r="E64" t="s">
+        <v>189</v>
+      </c>
+      <c r="F64" t="s">
+        <v>26</v>
+      </c>
+      <c r="I64" t="s">
+        <v>21</v>
+      </c>
+      <c r="K64" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" t="s">
+        <v>190</v>
+      </c>
+      <c r="D65" t="s">
+        <v>191</v>
+      </c>
+      <c r="E65" t="s">
+        <v>191</v>
+      </c>
+      <c r="F65" t="s">
+        <v>26</v>
+      </c>
+      <c r="I65" t="s">
+        <v>21</v>
+      </c>
+      <c r="K65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" t="s">
+        <v>192</v>
+      </c>
+      <c r="D66" t="s">
+        <v>193</v>
+      </c>
+      <c r="E66" t="s">
+        <v>193</v>
+      </c>
+      <c r="F66" t="s">
+        <v>26</v>
+      </c>
+      <c r="I66" t="s">
+        <v>21</v>
+      </c>
+      <c r="K66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" t="s">
+        <v>194</v>
+      </c>
+      <c r="D67" t="s">
+        <v>195</v>
+      </c>
+      <c r="E67" t="s">
+        <v>195</v>
+      </c>
+      <c r="F67" t="s">
+        <v>26</v>
+      </c>
+      <c r="I67" t="s">
+        <v>21</v>
+      </c>
+      <c r="K67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" t="s">
+        <v>196</v>
+      </c>
+      <c r="D68" t="s">
+        <v>197</v>
+      </c>
+      <c r="E68" t="s">
+        <v>197</v>
+      </c>
+      <c r="F68" t="s">
+        <v>49</v>
+      </c>
+      <c r="G68" t="s">
+        <v>198</v>
+      </c>
+      <c r="I68" t="s">
+        <v>21</v>
+      </c>
+      <c r="K68" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>199</v>
+      </c>
+      <c r="D69" t="s">
+        <v>200</v>
+      </c>
+      <c r="E69" t="s">
+        <v>200</v>
+      </c>
+      <c r="F69" t="s">
+        <v>26</v>
+      </c>
+      <c r="I69" t="s">
+        <v>21</v>
+      </c>
+      <c r="K69" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
+        <v>201</v>
+      </c>
+      <c r="D70" t="s">
+        <v>202</v>
+      </c>
+      <c r="E70" t="s">
+        <v>202</v>
+      </c>
+      <c r="F70" t="s">
+        <v>26</v>
+      </c>
+      <c r="I70" t="s">
+        <v>21</v>
+      </c>
+      <c r="K70" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" t="s">
+        <v>203</v>
+      </c>
+      <c r="D71" t="s">
+        <v>204</v>
+      </c>
+      <c r="E71" t="s">
+        <v>204</v>
+      </c>
+      <c r="F71" t="s">
+        <v>26</v>
+      </c>
+      <c r="I71" t="s">
+        <v>21</v>
+      </c>
+      <c r="K71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>205</v>
+      </c>
+      <c r="D72" t="s">
+        <v>206</v>
+      </c>
+      <c r="E72" t="s">
+        <v>206</v>
+      </c>
+      <c r="F72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I72" t="s">
+        <v>21</v>
+      </c>
+      <c r="K72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>207</v>
+      </c>
+      <c r="D73" t="s">
+        <v>208</v>
+      </c>
+      <c r="E73" t="s">
+        <v>208</v>
+      </c>
+      <c r="F73" t="s">
+        <v>26</v>
+      </c>
+      <c r="I73" t="s">
+        <v>21</v>
+      </c>
+      <c r="K73" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" t="s">
+        <v>209</v>
+      </c>
+      <c r="D74" t="s">
+        <v>210</v>
+      </c>
+      <c r="E74" t="s">
+        <v>211</v>
+      </c>
+      <c r="F74" t="s">
+        <v>26</v>
+      </c>
+      <c r="I74" t="s">
+        <v>21</v>
+      </c>
+      <c r="K74" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" t="s">
+        <v>212</v>
+      </c>
+      <c r="D75" t="s">
+        <v>213</v>
+      </c>
+      <c r="E75" t="s">
+        <v>214</v>
+      </c>
+      <c r="F75" t="s">
+        <v>26</v>
+      </c>
+      <c r="I75" t="s">
+        <v>21</v>
+      </c>
+      <c r="K75" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" t="s">
+        <v>215</v>
+      </c>
+      <c r="D76" t="s">
+        <v>216</v>
+      </c>
+      <c r="E76" t="s">
+        <v>217</v>
+      </c>
+      <c r="F76" t="s">
+        <v>26</v>
+      </c>
+      <c r="I76" t="s">
+        <v>21</v>
+      </c>
+      <c r="K76" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" t="s">
+        <v>218</v>
+      </c>
+      <c r="D77" t="s">
+        <v>219</v>
+      </c>
+      <c r="E77" t="s">
+        <v>220</v>
+      </c>
+      <c r="F77" t="s">
+        <v>26</v>
+      </c>
+      <c r="I77" t="s">
+        <v>21</v>
+      </c>
+      <c r="K77" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" t="s">
+        <v>221</v>
+      </c>
+      <c r="D78" t="s">
+        <v>222</v>
+      </c>
+      <c r="E78" t="s">
+        <v>223</v>
+      </c>
+      <c r="F78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G78" t="s">
+        <v>198</v>
+      </c>
+      <c r="I78" t="s">
+        <v>21</v>
+      </c>
+      <c r="K78" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" t="s">
+        <v>224</v>
+      </c>
+      <c r="D79" t="s">
+        <v>225</v>
+      </c>
+      <c r="E79" t="s">
+        <v>226</v>
+      </c>
+      <c r="F79" t="s">
+        <v>26</v>
+      </c>
+      <c r="I79" t="s">
+        <v>21</v>
+      </c>
+      <c r="K79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" t="s">
+        <v>227</v>
+      </c>
+      <c r="D80" t="s">
+        <v>228</v>
+      </c>
+      <c r="E80" t="s">
+        <v>229</v>
+      </c>
+      <c r="F80" t="s">
+        <v>26</v>
+      </c>
+      <c r="I80" t="s">
+        <v>21</v>
+      </c>
+      <c r="K80" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" t="s">
+        <v>230</v>
+      </c>
+      <c r="D81" t="s">
+        <v>231</v>
+      </c>
+      <c r="E81" t="s">
+        <v>231</v>
+      </c>
+      <c r="F81" t="s">
+        <v>26</v>
+      </c>
+      <c r="I81" t="s">
+        <v>21</v>
+      </c>
+      <c r="K81" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" t="s">
+        <v>232</v>
+      </c>
+      <c r="D82" t="s">
+        <v>233</v>
+      </c>
+      <c r="E82" t="s">
+        <v>234</v>
+      </c>
+      <c r="F82" t="s">
+        <v>26</v>
+      </c>
+      <c r="I82" t="s">
+        <v>21</v>
+      </c>
+      <c r="K82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" t="s">
+        <v>235</v>
+      </c>
+      <c r="D83" t="s">
+        <v>236</v>
+      </c>
+      <c r="E83" t="s">
+        <v>237</v>
+      </c>
+      <c r="F83" t="s">
+        <v>26</v>
+      </c>
+      <c r="I83" t="s">
+        <v>21</v>
+      </c>
+      <c r="K83" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" t="s">
+        <v>238</v>
+      </c>
+      <c r="D84" t="s">
+        <v>239</v>
+      </c>
+      <c r="E84" t="s">
+        <v>240</v>
+      </c>
+      <c r="F84" t="s">
+        <v>26</v>
+      </c>
+      <c r="I84" t="s">
+        <v>21</v>
+      </c>
+      <c r="K84" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" t="s">
+        <v>241</v>
+      </c>
+      <c r="D85" t="s">
+        <v>242</v>
+      </c>
+      <c r="E85" t="s">
+        <v>243</v>
+      </c>
+      <c r="F85" t="s">
+        <v>26</v>
+      </c>
+      <c r="I85" t="s">
+        <v>21</v>
+      </c>
+      <c r="K85" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -564,67 +3695,2498 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF18B90-99FF-4DF7-B5DC-207AB40285AC}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D52B9F6-178A-4331-AB9C-CBFE42099FDE}">
+  <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>244</v>
       </c>
       <c r="B1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="F7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="F8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>26</v>
+      <c r="F9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>-7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>-7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>-7</v>
+      </c>
+      <c r="F44" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>149</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>151</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>99</v>
+      </c>
+      <c r="F58" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>154</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s">
+        <v>154</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
+        <v>154</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>99</v>
+      </c>
+      <c r="F61" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>156</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>156</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" t="s">
+        <v>158</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" t="s">
+        <v>158</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" t="s">
+        <v>158</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" t="s">
+        <v>161</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" t="s">
+        <v>161</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>161</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>99</v>
+      </c>
+      <c r="F69" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
+        <v>163</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" t="s">
+        <v>163</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>165</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>165</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" t="s">
+        <v>168</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" t="s">
+        <v>168</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" t="s">
+        <v>171</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" t="s">
+        <v>171</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" t="s">
+        <v>174</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" t="s">
+        <v>174</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" t="s">
+        <v>177</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" t="s">
+        <v>177</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" t="s">
+        <v>194</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" t="s">
+        <v>194</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" t="s">
+        <v>199</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" t="s">
+        <v>199</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" t="s">
+        <v>199</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
+      <c r="F86" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" t="s">
+        <v>199</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>4</v>
+      </c>
+      <c r="F87" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" t="s">
+        <v>199</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>5</v>
+      </c>
+      <c r="F88" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" t="s">
+        <v>199</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>6</v>
+      </c>
+      <c r="F89" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" t="s">
+        <v>199</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>7</v>
+      </c>
+      <c r="F90" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" t="s">
+        <v>199</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>8</v>
+      </c>
+      <c r="F91" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" t="s">
+        <v>199</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>9</v>
+      </c>
+      <c r="F92" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" t="s">
+        <v>201</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" t="s">
+        <v>201</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" t="s">
+        <v>203</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" t="s">
+        <v>203</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" t="s">
+        <v>203</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>3</v>
+      </c>
+      <c r="F97" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" t="s">
+        <v>205</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" t="s">
+        <v>205</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="F99" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" t="s">
+        <v>205</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+      <c r="F100" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" t="s">
+        <v>207</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" t="s">
+        <v>207</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" t="s">
+        <v>207</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>3</v>
+      </c>
+      <c r="F103" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" t="s">
+        <v>209</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" t="s">
+        <v>209</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" t="s">
+        <v>209</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>3</v>
+      </c>
+      <c r="F106" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" t="s">
+        <v>209</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>4</v>
+      </c>
+      <c r="F107" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" t="s">
+        <v>209</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>5</v>
+      </c>
+      <c r="F108" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" t="s">
+        <v>209</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>6</v>
+      </c>
+      <c r="F109" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" t="s">
+        <v>209</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>7</v>
+      </c>
+      <c r="F110" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" t="s">
+        <v>209</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>8</v>
+      </c>
+      <c r="F111" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" t="s">
+        <v>209</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>9</v>
+      </c>
+      <c r="F112" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" t="s">
+        <v>209</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>10</v>
+      </c>
+      <c r="F113" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" t="s">
+        <v>209</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>11</v>
+      </c>
+      <c r="F114" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" t="s">
+        <v>212</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" t="s">
+        <v>212</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+      <c r="F116" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" t="s">
+        <v>212</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>3</v>
+      </c>
+      <c r="F117" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" t="s">
+        <v>215</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" t="s">
+        <v>215</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
+      </c>
+      <c r="F119" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" t="s">
+        <v>215</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>3</v>
+      </c>
+      <c r="F120" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" t="s">
+        <v>218</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" t="s">
+        <v>218</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" t="s">
+        <v>218</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" t="s">
+        <v>218</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+      <c r="F124" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" t="s">
+        <v>218</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>4</v>
+      </c>
+      <c r="F125" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" t="s">
+        <v>218</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>5</v>
+      </c>
+      <c r="F126" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" t="s">
+        <v>218</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>6</v>
+      </c>
+      <c r="F127" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" t="s">
+        <v>336</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" t="s">
+        <v>336</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" t="s">
+        <v>336</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>2</v>
+      </c>
+      <c r="F130" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" t="s">
+        <v>336</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>3</v>
+      </c>
+      <c r="F131" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" t="s">
+        <v>336</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>4</v>
+      </c>
+      <c r="F132" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" t="s">
+        <v>336</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>5</v>
+      </c>
+      <c r="F133" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" t="s">
+        <v>227</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" t="s">
+        <v>227</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>2</v>
+      </c>
+      <c r="F135" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" t="s">
+        <v>227</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>3</v>
+      </c>
+      <c r="F136" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" t="s">
+        <v>230</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" t="s">
+        <v>230</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>2</v>
+      </c>
+      <c r="F138" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" t="s">
+        <v>230</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>3</v>
+      </c>
+      <c r="F139" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" t="s">
+        <v>230</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>4</v>
+      </c>
+      <c r="F140" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" t="s">
+        <v>232</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" t="s">
+        <v>232</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" t="s">
+        <v>235</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" t="s">
+        <v>235</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" t="s">
+        <v>238</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" t="s">
+        <v>238</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/dataschema_ProPASS.xlsx
+++ b/dataschema_ProPASS.xlsx
@@ -1,32 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ca058780ebd4867/ProPASS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/849507f40a0f895e/Documents/ProPASS/DataSchema/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_F25DC773A252ABDACC10480B215F768E5ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B8C66AC-0D35-4850-8830-93969643438E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00729786-3379-4293-B32C-291507D04E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7080" windowWidth="16440" windowHeight="28320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7707491C-9770-4D56-A78F-0E298A8E82E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
     <sheet name="Categories" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="351">
   <si>
     <t>index</t>
   </si>
@@ -61,6 +72,9 @@
     <t>source</t>
   </si>
   <si>
+    <t>instruction</t>
+  </si>
+  <si>
     <t>ProPASS</t>
   </si>
   <si>
@@ -139,15 +153,6 @@
     <t>Participant's ethnicity</t>
   </si>
   <si>
-    <t>sdc_ethnicity_caucasian</t>
-  </si>
-  <si>
-    <t>Ethnicity - Caucasian</t>
-  </si>
-  <si>
-    <t>Indicator of whether the participant is caucasian or not</t>
-  </si>
-  <si>
     <t>sdc_employment_status</t>
   </si>
   <si>
@@ -157,6 +162,9 @@
     <t>Indicator of whether the participant is currently employed or unemployed</t>
   </si>
   <si>
+    <t>Homemaker/housewife/househusband considered as unemployed. Rentier considered as employed. Students, apprentices, retired, and family workers considered as NA.</t>
+  </si>
+  <si>
     <t>sdc_employment_pattern</t>
   </si>
   <si>
@@ -166,6 +174,9 @@
     <t>Indicator of whether the participant is currently employed full-time or part-time</t>
   </si>
   <si>
+    <t>Number of hours of work per week to consider full-time or part-time depends on the country of each study.</t>
+  </si>
+  <si>
     <t>sdc_work_hours</t>
   </si>
   <si>
@@ -196,6 +207,9 @@
     <t>Indicator of whether the participant is currently retired or not</t>
   </si>
   <si>
+    <t>Students and voluntary workers set as NA. Accept categories that combine retired and pensioner.</t>
+  </si>
+  <si>
     <t>sdc_married</t>
   </si>
   <si>
@@ -208,10 +222,10 @@
     <t>sdc_relationship</t>
   </si>
   <si>
-    <t>Currently in a relationship</t>
-  </si>
-  <si>
-    <t>Indicator of whether the participant is in a relationship or not</t>
+    <t>Currently in a formal relationship</t>
+  </si>
+  <si>
+    <t>Indicator of whether the participant is in a formal relationship or not</t>
   </si>
   <si>
     <t>sdc_location</t>
@@ -259,6 +273,9 @@
     <t>kg/m2</t>
   </si>
   <si>
+    <t>Can be the average of several measures</t>
+  </si>
+  <si>
     <t>pm_waist_circ</t>
   </si>
   <si>
@@ -298,6 +315,9 @@
     <t>mmHg</t>
   </si>
   <si>
+    <t>Average of all available measures</t>
+  </si>
+  <si>
     <t>pm_diasto_bp</t>
   </si>
   <si>
@@ -325,6 +345,9 @@
     <t>ml/min/kg</t>
   </si>
   <si>
+    <t>Method can differ but must be detailed in harmonization comment</t>
+  </si>
+  <si>
     <t>lab_blood_fasting</t>
   </si>
   <si>
@@ -466,6 +489,15 @@
     <t>Smoking Status</t>
   </si>
   <si>
+    <t>Occasional smokers considered as smokers.</t>
+  </si>
+  <si>
+    <t>smk_smoking_frequency</t>
+  </si>
+  <si>
+    <t>Current smoking frequency</t>
+  </si>
+  <si>
     <t>smk_smoking_quantity</t>
   </si>
   <si>
@@ -484,10 +516,13 @@
     <t>dis_cvd</t>
   </si>
   <si>
-    <t>Cadio vascular diseases</t>
-  </si>
-  <si>
-    <t>CVD (ischemic heart disease, stroke, hypertension, heart failure, atrial fibrillation?, thrombosis?)</t>
+    <t>Cardio vascular diseases</t>
+  </si>
+  <si>
+    <t>Cardio vascular diseases (ischemic heart disease, stroke, hypertension, heart failure, atrial fibrillation, thrombosis, cerebrovascular disease, angina pectoris)</t>
+  </si>
+  <si>
+    <t>When studies don't have a "other" category the "No" cannot be generated. In this situation only 1 and NA would be present.</t>
   </si>
   <si>
     <t>dis_musculoskeletal</t>
@@ -496,19 +531,25 @@
     <t>Musculoskeletal diseases</t>
   </si>
   <si>
+    <t>Musculoskeletal diseases (osteoporosis, arthrosis, rheumatic disorder, osteoarthritis or rheumatism, rheumatoid arthritis, osteoarthritis, other arthritis, rheumatoid arthritis)</t>
+  </si>
+  <si>
     <t>dis_diabetes</t>
   </si>
   <si>
     <t>Diabetes</t>
   </si>
   <si>
+    <t>Diabetes (including gestational diabetes and other types of diabetes but excluding impaired fasting glucose and impaired glucose tolerance)</t>
+  </si>
+  <si>
     <t>dis_diabetes_type</t>
   </si>
   <si>
     <t>Diabetes type</t>
   </si>
   <si>
-    <t>Diabetes type (excluding gestational diabetes)</t>
+    <t>Diabetes type (including gestational diabetes and other types of diabetes but excluding impaired fasting glucose and impaired glucose tolerance)</t>
   </si>
   <si>
     <t>dis_cancer</t>
@@ -523,405 +564,396 @@
     <t>Diagnosed hypercholesteromia</t>
   </si>
   <si>
+    <t>med_lipid_lowering</t>
+  </si>
+  <si>
+    <t>Current use of lipid lowering medication</t>
+  </si>
+  <si>
+    <t>med_blood_pressure</t>
+  </si>
+  <si>
+    <t>Current use of medication to manage blood pressure</t>
+  </si>
+  <si>
+    <t>med_diabetes</t>
+  </si>
+  <si>
+    <t>Current use of medication for diabetes</t>
+  </si>
+  <si>
+    <t>cog_depression</t>
+  </si>
+  <si>
+    <t>Depression</t>
+  </si>
+  <si>
+    <t>Indicator of whether the participant has ever being diagnosed with depression or not</t>
+  </si>
+  <si>
+    <t>cog_dep_cesd20</t>
+  </si>
+  <si>
+    <t>CES-D (20 items) score</t>
+  </si>
+  <si>
+    <t>cog_dep_cesd10</t>
+  </si>
+  <si>
+    <t>CES-D (10 items) score</t>
+  </si>
+  <si>
+    <t>cog_dep_malaise</t>
+  </si>
+  <si>
+    <t>Malaise inventory (9 items) score</t>
+  </si>
+  <si>
+    <t>cog_dep_kessler</t>
+  </si>
+  <si>
+    <t>Kessler psychological distress score</t>
+  </si>
+  <si>
+    <t>cog_dep_phq9</t>
+  </si>
+  <si>
+    <t>PHQ-9 score</t>
+  </si>
+  <si>
+    <t>cog_mci_mmse_score</t>
+  </si>
+  <si>
+    <t>MMSE score</t>
+  </si>
+  <si>
+    <t>cog_mci_moca_score</t>
+  </si>
+  <si>
+    <t>MoCa score</t>
+  </si>
+  <si>
+    <t>cog_alzheimers_dementia</t>
+  </si>
+  <si>
+    <t>Alzheimers/Dementia</t>
+  </si>
+  <si>
+    <t>sleep_duration</t>
+  </si>
+  <si>
+    <t>Usual number of hours of sleep - continuous</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>sleep_duration_cat</t>
+  </si>
+  <si>
+    <t>Usual number of hours of sleep - categorical</t>
+  </si>
+  <si>
+    <t>sleep_difficulties</t>
+  </si>
+  <si>
+    <t>Indicator of whether the participant has difficulties sleeping or not</t>
+  </si>
+  <si>
+    <t>sed_beh_tv_week_all</t>
+  </si>
+  <si>
+    <t>Daily TV viewing during the week</t>
+  </si>
+  <si>
+    <t>Calculate weighted average if needed</t>
+  </si>
+  <si>
+    <t>sed_beh_tv_week_days</t>
+  </si>
+  <si>
+    <t>Daily TV viewing during week days</t>
+  </si>
+  <si>
+    <t>sed_beh_tv_weekend_days</t>
+  </si>
+  <si>
+    <t>Daily TV viewing during weekend days</t>
+  </si>
+  <si>
+    <t>sed_beh_comp_use</t>
+  </si>
+  <si>
+    <t>Computer use</t>
+  </si>
+  <si>
+    <t>Time spent using a computer per day on weekdays excluding computer use at work</t>
+  </si>
+  <si>
+    <t>sed_beh_video_games</t>
+  </si>
+  <si>
+    <t>Video games</t>
+  </si>
+  <si>
+    <t>Time spent playing video games per day</t>
+  </si>
+  <si>
+    <t>sed_beh_reading</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Time spent reading per day</t>
+  </si>
+  <si>
+    <t>sed_beh_total_sitting</t>
+  </si>
+  <si>
+    <t>Total sitting time per day</t>
+  </si>
+  <si>
+    <t>Overall time spent sitting per day</t>
+  </si>
+  <si>
+    <t>sed_beh_total_sitting_cat</t>
+  </si>
+  <si>
+    <t>Total sitting time per day - categorical</t>
+  </si>
+  <si>
+    <t>Overall time spent sitting per day - categorical</t>
+  </si>
+  <si>
+    <t>phy_walking</t>
+  </si>
+  <si>
+    <t>Walking for leisure</t>
+  </si>
+  <si>
+    <t>Frequency of walking for leisure per week</t>
+  </si>
+  <si>
+    <t>phy_occupational_pa</t>
+  </si>
+  <si>
+    <t>Occupational physical activity</t>
+  </si>
+  <si>
+    <t>phy_sport_participation</t>
+  </si>
+  <si>
+    <t>Sport participation</t>
+  </si>
+  <si>
+    <t>Indicator of whether the participant is participating in sport activity or not</t>
+  </si>
+  <si>
+    <t>When studies don't have a "other" category the "No" cannot be generated. In this situation only 1 and NA would be present. Physical activity was considered as sport as soon as the intensity was specified as being moderate or more.</t>
+  </si>
+  <si>
+    <t>phy_active_commuting</t>
+  </si>
+  <si>
+    <t>Active commuting</t>
+  </si>
+  <si>
+    <t>Indicator of whether the participant is engaging in active commuting</t>
+  </si>
+  <si>
+    <t>phy_leisure_time</t>
+  </si>
+  <si>
+    <t>Leisure-time physical activity, including sport</t>
+  </si>
+  <si>
+    <t>Indicator of whether the participant is engaging in physical activity during leisure-time (including sport)</t>
+  </si>
+  <si>
+    <t>Physical activity was considered as soon as the intensity was specified as being moderate (or equivalent) or more.</t>
+  </si>
+  <si>
+    <t>phy_mobility_limitation_SF36</t>
+  </si>
+  <si>
+    <t>Physical function SF36 subscale score</t>
+  </si>
+  <si>
+    <t>Total score of the physical function subscale of SF36</t>
+  </si>
+  <si>
+    <t>phy_SF36_nb_items</t>
+  </si>
+  <si>
+    <t>Number of non-missing items</t>
+  </si>
+  <si>
+    <t>Number of non-missing items in the SF36 physical function subscale</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>None or lower than high school</t>
+  </si>
+  <si>
+    <t>High school qualifications</t>
+  </si>
+  <si>
+    <t>Further education qualifications</t>
+  </si>
+  <si>
+    <t>University degree and higher</t>
+  </si>
+  <si>
+    <t>Caucasian or White (Eg: German, Irish, English, Italian, Polish, French, etc)</t>
+  </si>
+  <si>
+    <t>Black or African American (Eg: African American, Jamaican, Haitian, Nigerian, Ethiopian, Somalian, etc)</t>
+  </si>
+  <si>
+    <t>Asian (Eg: Chinese, Filipino, Asian Indian, Vietnamese, Korean, Japanese, etc)</t>
+  </si>
+  <si>
+    <t>Mixed ethnicity and Other</t>
+  </si>
+  <si>
+    <t>Unemployed</t>
+  </si>
+  <si>
+    <t>Employed</t>
+  </si>
+  <si>
+    <t>Not retired</t>
+  </si>
+  <si>
+    <t>Retired</t>
+  </si>
+  <si>
+    <t>Part-time</t>
+  </si>
+  <si>
+    <t>Full-time</t>
+  </si>
+  <si>
+    <t>Never married</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Formerly married</t>
+  </si>
+  <si>
+    <t>Not in a relationship</t>
+  </si>
+  <si>
+    <t>In a relationship</t>
+  </si>
+  <si>
+    <t>Rural</t>
+  </si>
+  <si>
+    <t>Urban</t>
+  </si>
+  <si>
+    <t>Self-reported</t>
+  </si>
+  <si>
+    <t>Measured by professional</t>
+  </si>
+  <si>
+    <t>Non-fasted</t>
+  </si>
+  <si>
+    <t>Short-fast (&lt;=4h)</t>
+  </si>
+  <si>
+    <t>Long fast (&gt;4h)</t>
+  </si>
+  <si>
+    <t>Rarely</t>
+  </si>
+  <si>
+    <t>Several times a week</t>
+  </si>
+  <si>
+    <t>Every day</t>
+  </si>
+  <si>
+    <t>Never/almost never</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Daily/Almost daily</t>
+  </si>
+  <si>
+    <t>Never smoked</t>
+  </si>
+  <si>
+    <t>Previously smoked</t>
+  </si>
+  <si>
+    <t>Currently smoke</t>
+  </si>
+  <si>
+    <t>Occasionaly</t>
+  </si>
+  <si>
+    <t>Poor/Very Poor</t>
+  </si>
+  <si>
+    <t>Moderate/Fair</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Very good/Excellent</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Type 1</t>
+  </si>
+  <si>
+    <t>Type 2</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t>med_insulin</t>
   </si>
   <si>
-    <t>Insulin treatment at present time</t>
-  </si>
-  <si>
-    <t>Indicator of whether the participant is taking insulin or not at present time</t>
-  </si>
-  <si>
-    <t>med_lipid_lowering</t>
-  </si>
-  <si>
-    <t>Current use of lipid lowering medication</t>
-  </si>
-  <si>
-    <t>Use of lipid lowering medication</t>
-  </si>
-  <si>
-    <t>med_blood_pressure</t>
-  </si>
-  <si>
-    <t>Current use of medication to manage blood pressure</t>
-  </si>
-  <si>
-    <t>Use of medication to manage blood pressure</t>
-  </si>
-  <si>
-    <t>med_diabetes</t>
-  </si>
-  <si>
-    <t>Current use of medication for diabetes</t>
-  </si>
-  <si>
-    <t>Use of medication for diabetes</t>
-  </si>
-  <si>
-    <t>cog_depression</t>
-  </si>
-  <si>
-    <t>Depression</t>
-  </si>
-  <si>
-    <t>Indicator of whether the participant has ever being diagnosed with depression or not</t>
-  </si>
-  <si>
-    <t>cog_dep_cesd20</t>
-  </si>
-  <si>
-    <t>CES-D (20 items) score</t>
-  </si>
-  <si>
-    <t>cog_dep_cesd10</t>
-  </si>
-  <si>
-    <t>CES-D (10 items) score</t>
-  </si>
-  <si>
-    <t>cog_dep_malaise</t>
-  </si>
-  <si>
-    <t>Malaise inventory (9 items) score</t>
-  </si>
-  <si>
-    <t>cog_dep_kessler</t>
-  </si>
-  <si>
-    <t>Kessler psychological distress score</t>
-  </si>
-  <si>
-    <t>cog_dep_phq9</t>
-  </si>
-  <si>
-    <t>PHQ-9 score</t>
-  </si>
-  <si>
-    <t>cog_mci_mmse_score</t>
-  </si>
-  <si>
-    <t>MMSE score</t>
-  </si>
-  <si>
-    <t>cog_mci_moca_score</t>
-  </si>
-  <si>
-    <t>MoCa score</t>
-  </si>
-  <si>
-    <t>cog_alzheimers_dementia</t>
-  </si>
-  <si>
-    <t>Alzheimers/Dementia</t>
-  </si>
-  <si>
-    <t>sleep_duration</t>
-  </si>
-  <si>
-    <t>Usual number of hours of sleep - continuous</t>
-  </si>
-  <si>
-    <t>hours</t>
-  </si>
-  <si>
-    <t>sleep_duration_cat</t>
-  </si>
-  <si>
-    <t>Usual number of hours of sleep - categorical</t>
-  </si>
-  <si>
-    <t>sleep_difficulties</t>
-  </si>
-  <si>
-    <t>Indicator of whether the participant has difficulties sleeping or not</t>
-  </si>
-  <si>
-    <t>sed_beh_tv_week_all</t>
-  </si>
-  <si>
-    <t>Daily TV viewing during the week</t>
-  </si>
-  <si>
-    <t>sed_beh_tv_week_days</t>
-  </si>
-  <si>
-    <t>Daily TV viewing during week days</t>
-  </si>
-  <si>
-    <t>sed_beh_tv_weekend_days</t>
-  </si>
-  <si>
-    <t>Daily TV viewing during weekend days</t>
-  </si>
-  <si>
-    <t>sed_beh_comp_use</t>
-  </si>
-  <si>
-    <t>Computer use</t>
-  </si>
-  <si>
-    <t>Time spent using a computer per day on weekdays excluding computer use at work</t>
-  </si>
-  <si>
-    <t>sed_beh_video_games</t>
-  </si>
-  <si>
-    <t>Video games</t>
-  </si>
-  <si>
-    <t>Time spent playing video games per day</t>
-  </si>
-  <si>
-    <t>sed_beh_reading</t>
-  </si>
-  <si>
-    <t>Reading</t>
-  </si>
-  <si>
-    <t>Time spent reading per day</t>
-  </si>
-  <si>
-    <t>sed_beh_sitting_work</t>
-  </si>
-  <si>
-    <t>Sitting at work</t>
-  </si>
-  <si>
-    <t>Time spent sitting at work per day</t>
-  </si>
-  <si>
-    <t>sed_beh_total_sitting</t>
-  </si>
-  <si>
-    <t>Total sitting time</t>
-  </si>
-  <si>
-    <t>Overall time spent sitting per day</t>
-  </si>
-  <si>
-    <t>sed_beh_total_sitting_cat</t>
-  </si>
-  <si>
-    <t>Total sitting time - categorical</t>
-  </si>
-  <si>
-    <t>Overall time spent sitting per day - categorical</t>
-  </si>
-  <si>
-    <t>phy_walking</t>
-  </si>
-  <si>
-    <t>Walking for leisure</t>
-  </si>
-  <si>
-    <t>Frequency of walking for leisure per week</t>
-  </si>
-  <si>
-    <t>phy_occupational_pa</t>
-  </si>
-  <si>
-    <t>Occupational physical activity</t>
-  </si>
-  <si>
-    <t>phy_sport_participation</t>
-  </si>
-  <si>
-    <t>Sport participation</t>
-  </si>
-  <si>
-    <t>Indicator of whether the participant is participating in sport activity or not</t>
-  </si>
-  <si>
-    <t>phy_active_commuting</t>
-  </si>
-  <si>
-    <t>Active commuting</t>
-  </si>
-  <si>
-    <t>Indicator of whether the participant is engaging in active commuting</t>
-  </si>
-  <si>
-    <t>phy_leisure_time</t>
-  </si>
-  <si>
-    <t>Leisure-time physical activity, including sport</t>
-  </si>
-  <si>
-    <t>Indicator of whether the participant is engaging in physical activity during leisure-time (including sport)</t>
-  </si>
-  <si>
-    <t>phy_mobility_limitation_SF36</t>
-  </si>
-  <si>
-    <t>Physical function SF36 subscale score</t>
-  </si>
-  <si>
-    <t>Total score of the physical function subscale of SF36</t>
-  </si>
-  <si>
-    <t>project</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>variable</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>None or lower than high school</t>
-  </si>
-  <si>
-    <t>High school qualifications</t>
-  </si>
-  <si>
-    <t>Further education qualifications</t>
-  </si>
-  <si>
-    <t>University degree and higher</t>
-  </si>
-  <si>
-    <t>Caucasian or White (Eg: German, Irish, English, Italian, Polish, French, etc)</t>
-  </si>
-  <si>
-    <t>Black or African American (Eg: African American, Jamaican, Haitian, Nigerian, Ethiopian, Somalian, etc)</t>
-  </si>
-  <si>
-    <t>Asian (Eg: Chinese, Filipino, Asian Indian, Vietnamese, Korean, Japanese, etc)</t>
-  </si>
-  <si>
-    <t>Mixed ethnicity and Other</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Unemployed</t>
-  </si>
-  <si>
-    <t>Employed</t>
-  </si>
-  <si>
-    <t>Not retired</t>
-  </si>
-  <si>
-    <t>Retired</t>
-  </si>
-  <si>
-    <t>Part-time</t>
-  </si>
-  <si>
-    <t>Full-time</t>
-  </si>
-  <si>
-    <t>Not Applicable</t>
-  </si>
-  <si>
-    <t>Skipped</t>
-  </si>
-  <si>
-    <t>Never married</t>
-  </si>
-  <si>
-    <t>Married</t>
-  </si>
-  <si>
-    <t>Formerly married</t>
-  </si>
-  <si>
-    <t>Not in a relationship</t>
-  </si>
-  <si>
-    <t>In a relationship</t>
-  </si>
-  <si>
-    <t>Rural</t>
-  </si>
-  <si>
-    <t>Urban</t>
-  </si>
-  <si>
-    <t>Self-reported</t>
-  </si>
-  <si>
-    <t>Measured by professional</t>
-  </si>
-  <si>
-    <t>Non-fasted</t>
-  </si>
-  <si>
-    <t>Short-fast (&lt;=4h)</t>
-  </si>
-  <si>
-    <t>Long fast (&gt;4h)</t>
-  </si>
-  <si>
-    <t>Rarely</t>
-  </si>
-  <si>
-    <t>Several times a week</t>
-  </si>
-  <si>
-    <t>Every day</t>
-  </si>
-  <si>
-    <t>Never/almost never</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>Weekly</t>
-  </si>
-  <si>
-    <t>Daily/almost daily</t>
-  </si>
-  <si>
-    <t>Never smoked</t>
-  </si>
-  <si>
-    <t>Previously smoked</t>
-  </si>
-  <si>
-    <t>Currently smoke</t>
-  </si>
-  <si>
-    <t>Poor/Very Poor</t>
-  </si>
-  <si>
-    <t>Moderate/Fair</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>Very good/Excellent</t>
-  </si>
-  <si>
-    <t>Missing</t>
-  </si>
-  <si>
-    <t>Type 1</t>
-  </si>
-  <si>
-    <t>Type 2</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>Not taking insulin at present time</t>
   </si>
   <si>
@@ -961,7 +993,7 @@
     <t>10 hours or more</t>
   </si>
   <si>
-    <t>Never</t>
+    <t>Never/Rarely</t>
   </si>
   <si>
     <t>Some difficulties</t>
@@ -1018,24 +1050,6 @@
     <t>0 to 1 hour per day</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>1 to 2 hours per day</t>
-  </si>
-  <si>
-    <t>3 to 4 hours per day</t>
-  </si>
-  <si>
-    <t>5 to 6 hours per day</t>
-  </si>
-  <si>
-    <t>7 to 8 hours per day</t>
-  </si>
-  <si>
-    <t>9 hours or more per day</t>
-  </si>
-  <si>
     <t>sed_beh_sitting_tot_cat</t>
   </si>
   <si>
@@ -1073,17 +1087,28 @@
   </si>
   <si>
     <t>Strenuous physical work</t>
+  </si>
+  <si>
+    <t>Must be unique</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1108,8 +1133,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1138,39 +1164,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1203,9 +1229,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1238,6 +1281,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1299,13 +1359,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1314,6 +1367,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1378,2315 +1438,2392 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666BFB20-618E-4AE1-9183-77E9539422F7}">
+  <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="158.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="208.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>67</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>49</v>
+      </c>
+      <c r="G18" t="s">
+        <v>72</v>
       </c>
       <c r="I18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="I19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>49</v>
+      </c>
+      <c r="G20" t="s">
+        <v>77</v>
       </c>
       <c r="I20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s">
         <v>49</v>
       </c>
       <c r="G21" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" t="s">
         <v>49</v>
       </c>
-      <c r="G22" t="s">
-        <v>66</v>
-      </c>
-      <c r="I22" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" t="s">
-        <v>26</v>
+      <c r="G23" t="s">
+        <v>85</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="G25" t="s">
+        <v>91</v>
       </c>
       <c r="I25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E26" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" t="s">
+        <v>98</v>
+      </c>
+      <c r="I27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" t="s">
         <v>92</v>
       </c>
-      <c r="F27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" t="s">
-        <v>89</v>
-      </c>
-      <c r="I27" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F28" t="s">
         <v>49</v>
       </c>
       <c r="G28" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="I28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
-      </c>
-      <c r="G29" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="I29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
+        <v>49</v>
+      </c>
+      <c r="G30" t="s">
+        <v>107</v>
       </c>
       <c r="I30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F31" t="s">
         <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="I31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E32" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F32" t="s">
         <v>49</v>
       </c>
       <c r="G32" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="I32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E33" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F33" t="s">
         <v>49</v>
       </c>
       <c r="G33" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D34" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E34" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F34" t="s">
         <v>49</v>
       </c>
       <c r="G34" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E35" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F35" t="s">
         <v>49</v>
       </c>
       <c r="G35" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E36" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F36" t="s">
         <v>49</v>
       </c>
       <c r="G36" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D37" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E37" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F37" t="s">
         <v>49</v>
       </c>
       <c r="G37" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="I37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D38" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E38" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F38" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="G38" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="I38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K38" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="D39" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E39" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F39" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="I39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D40" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E40" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F40" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="G40" t="s">
+        <v>128</v>
       </c>
       <c r="I40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D41" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E41" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="I41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K41" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D42" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E42" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
+        <v>49</v>
+      </c>
+      <c r="G42" t="s">
+        <v>140</v>
       </c>
       <c r="I42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K42" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D43" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E43" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F43" t="s">
         <v>49</v>
       </c>
       <c r="G43" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="I43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K43" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D44" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E44" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F44" t="s">
-        <v>49</v>
-      </c>
-      <c r="G44" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="I44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K44" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D45" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E45" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K45" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D46" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E46" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K46" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E47" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G47" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="I47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K47" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D48" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E48" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D49" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E49" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F49" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K49" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L49" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D50" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E50" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K50" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L50" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D51" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E51" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F51" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I51" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K51" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L51" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D52" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E52" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F52" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I52" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K52" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
+        <v>171</v>
+      </c>
+      <c r="D53" t="s">
+        <v>172</v>
+      </c>
+      <c r="E53" t="s">
+        <v>172</v>
+      </c>
+      <c r="F53" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53" t="s">
+        <v>22</v>
+      </c>
+      <c r="K53" t="s">
+        <v>23</v>
+      </c>
+      <c r="L53" t="s">
         <v>161</v>
       </c>
-      <c r="D53" t="s">
-        <v>162</v>
-      </c>
-      <c r="E53" t="s">
-        <v>162</v>
-      </c>
-      <c r="F53" t="s">
-        <v>26</v>
-      </c>
-      <c r="I53" t="s">
-        <v>21</v>
-      </c>
-      <c r="K53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D54" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="E54" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="F54" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I54" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K54" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="D55" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="E55" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F55" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K55" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D56" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E56" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="F56" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K56" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="D57" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E57" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F57" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I57" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K57" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D58" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E58" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F58" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K58" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D59" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E59" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F59" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K59" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D60" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="E60" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F60" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K60" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D61" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E61" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F61" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K61" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D62" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E62" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F62" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I62" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K62" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D63" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E63" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F63" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K63" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D64" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E64" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F64" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I64" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K64" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D65" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E65" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F65" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I65" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K65" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D66" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E66" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F66" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K66" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D67" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E67" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F67" t="s">
-        <v>26</v>
+        <v>49</v>
+      </c>
+      <c r="G67" t="s">
+        <v>202</v>
       </c>
       <c r="I67" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K67" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="D68" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E68" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F68" t="s">
-        <v>49</v>
-      </c>
-      <c r="G68" t="s">
-        <v>198</v>
+        <v>27</v>
       </c>
       <c r="I68" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K68" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D69" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E69" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F69" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I69" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K69" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D70" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E70" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F70" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I70" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K70" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L70" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D71" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="E71" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="F71" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D72" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E72" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="F72" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I72" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K72" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D73" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E73" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="F73" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I73" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K73" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
+        <v>217</v>
+      </c>
+      <c r="D74" t="s">
+        <v>218</v>
+      </c>
+      <c r="E74" t="s">
+        <v>219</v>
+      </c>
+      <c r="F74" t="s">
+        <v>27</v>
+      </c>
+      <c r="I74" t="s">
+        <v>22</v>
+      </c>
+      <c r="K74" t="s">
+        <v>23</v>
+      </c>
+      <c r="L74" t="s">
         <v>209</v>
       </c>
-      <c r="D74" t="s">
-        <v>210</v>
-      </c>
-      <c r="E74" t="s">
-        <v>211</v>
-      </c>
-      <c r="F74" t="s">
-        <v>26</v>
-      </c>
-      <c r="I74" t="s">
-        <v>21</v>
-      </c>
-      <c r="K74" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D75" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="E75" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="F75" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I75" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K75" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L75" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D76" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E76" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="F76" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="G76" t="s">
+        <v>202</v>
       </c>
       <c r="I76" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K76" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L76" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D77" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="E77" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="F77" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I77" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K77" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="D78" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E78" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="F78" t="s">
-        <v>26</v>
-      </c>
-      <c r="G78" t="s">
-        <v>198</v>
+        <v>27</v>
       </c>
       <c r="I78" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K78" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D79" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E79" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="F79" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I79" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K79" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D80" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E80" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F80" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I80" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K80" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L80" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D81" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="E81" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="F81" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I81" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K81" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="D82" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E82" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="F82" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I82" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K82" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L82" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="D83" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="E83" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="F83" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I83" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K83" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="D84" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="E84" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="F84" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="G84" t="s">
+        <v>251</v>
       </c>
       <c r="I84" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K84" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85" t="s">
-        <v>11</v>
-      </c>
-      <c r="C85" t="s">
-        <v>241</v>
-      </c>
-      <c r="D85" t="s">
-        <v>242</v>
-      </c>
-      <c r="E85" t="s">
-        <v>243</v>
-      </c>
-      <c r="F85" t="s">
-        <v>26</v>
-      </c>
-      <c r="I85" t="s">
-        <v>21</v>
-      </c>
-      <c r="K85" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3695,41 +3832,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D52B9F6-178A-4331-AB9C-CBFE42099FDE}">
-  <dimension ref="A1:F146"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB3AC2F-11B9-429E-B121-A915E3C155EB}">
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="94.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3738,15 +3883,15 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -3755,15 +3900,15 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3772,15 +3917,15 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -3789,15 +3934,15 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3806,15 +3951,15 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3823,15 +3968,15 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -3840,15 +3985,15 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -3857,15 +4002,15 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -3874,15 +4019,15 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -3891,15 +4036,15 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -3908,15 +4053,15 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -3925,15 +4070,15 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -3942,15 +4087,15 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -3959,134 +4104,134 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>-7</v>
+        <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -4095,15 +4240,15 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -4112,49 +4257,49 @@
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4163,15 +4308,15 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4180,15 +4325,15 @@
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4197,15 +4342,15 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4214,185 +4359,185 @@
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F35" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -4401,15 +4546,15 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -4418,15 +4563,15 @@
         <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -4435,321 +4580,321 @@
         <v>3</v>
       </c>
       <c r="F43" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F52" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>258</v>
+        <v>301</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="F61" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -4758,15 +4903,15 @@
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -4775,117 +4920,117 @@
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>158</v>
+        <v>304</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>161</v>
+        <v>304</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>258</v>
+        <v>306</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -4894,15 +5039,15 @@
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -4911,15 +5056,15 @@
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -4928,15 +5073,15 @@
         <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -4945,15 +5090,15 @@
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -4962,15 +5107,15 @@
         <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -4979,15 +5124,15 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -4996,15 +5141,15 @@
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>258</v>
+        <v>307</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -5013,304 +5158,304 @@
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F79" t="s">
-        <v>259</v>
+        <v>310</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F80" t="s">
-        <v>258</v>
+        <v>311</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
-        <v>259</v>
+        <v>312</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F82" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F83" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F84" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F85" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F86" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F90" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F91" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F93" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F94" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -5319,15 +5464,15 @@
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -5336,15 +5481,15 @@
         <v>2</v>
       </c>
       <c r="F96" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -5353,15 +5498,15 @@
         <v>3</v>
       </c>
       <c r="F97" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -5370,15 +5515,15 @@
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -5387,15 +5532,15 @@
         <v>2</v>
       </c>
       <c r="F99" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -5404,474 +5549,474 @@
         <v>3</v>
       </c>
       <c r="F100" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F101" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F102" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F103" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F104" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F105" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F106" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" t="s">
+        <v>214</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
         <v>11</v>
       </c>
-      <c r="C108" t="s">
-        <v>209</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-      <c r="E108">
-        <v>5</v>
-      </c>
       <c r="F108" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C109" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C110" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F110" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C111" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F111" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C112" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="D112">
         <v>0</v>
       </c>
       <c r="E112">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C113" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="D113">
         <v>0</v>
       </c>
       <c r="E113">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F113" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C114" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F114" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C115" t="s">
-        <v>212</v>
+        <v>337</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C116" t="s">
-        <v>212</v>
+        <v>337</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C117" t="s">
-        <v>212</v>
+        <v>337</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F117" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C118" t="s">
-        <v>215</v>
+        <v>337</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F118" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C119" t="s">
-        <v>215</v>
+        <v>337</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F119" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C120" t="s">
-        <v>215</v>
+        <v>337</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F120" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C121" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C122" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F122" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C123" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F123" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C124" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C125" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F125" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C126" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="D126">
         <v>0</v>
       </c>
       <c r="E126">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F126" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C127" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F127" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C128" t="s">
-        <v>336</v>
+        <v>234</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -5880,15 +6025,15 @@
         <v>0</v>
       </c>
       <c r="F128" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C129" t="s">
-        <v>336</v>
+        <v>234</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -5897,296 +6042,75 @@
         <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C130" t="s">
-        <v>336</v>
+        <v>238</v>
       </c>
       <c r="D130">
         <v>0</v>
       </c>
       <c r="E130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F130" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C131" t="s">
-        <v>336</v>
+        <v>238</v>
       </c>
       <c r="D131">
         <v>0</v>
       </c>
       <c r="E131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C132" t="s">
-        <v>336</v>
+        <v>241</v>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F132" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C133" t="s">
-        <v>336</v>
+        <v>241</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F133" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>11</v>
-      </c>
-      <c r="C134" t="s">
-        <v>227</v>
-      </c>
-      <c r="D134">
-        <v>0</v>
-      </c>
-      <c r="E134">
-        <v>1</v>
-      </c>
-      <c r="F134" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>11</v>
-      </c>
-      <c r="C135" t="s">
-        <v>227</v>
-      </c>
-      <c r="D135">
-        <v>0</v>
-      </c>
-      <c r="E135">
-        <v>2</v>
-      </c>
-      <c r="F135" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>11</v>
-      </c>
-      <c r="C136" t="s">
-        <v>227</v>
-      </c>
-      <c r="D136">
-        <v>0</v>
-      </c>
-      <c r="E136">
-        <v>3</v>
-      </c>
-      <c r="F136" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>11</v>
-      </c>
-      <c r="C137" t="s">
-        <v>230</v>
-      </c>
-      <c r="D137">
-        <v>0</v>
-      </c>
-      <c r="E137">
-        <v>1</v>
-      </c>
-      <c r="F137" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>11</v>
-      </c>
-      <c r="C138" t="s">
-        <v>230</v>
-      </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-      <c r="E138">
-        <v>2</v>
-      </c>
-      <c r="F138" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>11</v>
-      </c>
-      <c r="C139" t="s">
-        <v>230</v>
-      </c>
-      <c r="D139">
-        <v>0</v>
-      </c>
-      <c r="E139">
-        <v>3</v>
-      </c>
-      <c r="F139" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>11</v>
-      </c>
-      <c r="C140" t="s">
-        <v>230</v>
-      </c>
-      <c r="D140">
-        <v>0</v>
-      </c>
-      <c r="E140">
-        <v>4</v>
-      </c>
-      <c r="F140" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>11</v>
-      </c>
-      <c r="C141" t="s">
-        <v>232</v>
-      </c>
-      <c r="D141">
-        <v>0</v>
-      </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="F141" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>11</v>
-      </c>
-      <c r="C142" t="s">
-        <v>232</v>
-      </c>
-      <c r="D142">
-        <v>0</v>
-      </c>
-      <c r="E142">
-        <v>1</v>
-      </c>
-      <c r="F142" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>11</v>
-      </c>
-      <c r="C143" t="s">
-        <v>235</v>
-      </c>
-      <c r="D143">
-        <v>0</v>
-      </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-      <c r="F143" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>11</v>
-      </c>
-      <c r="C144" t="s">
-        <v>235</v>
-      </c>
-      <c r="D144">
-        <v>0</v>
-      </c>
-      <c r="E144">
-        <v>1</v>
-      </c>
-      <c r="F144" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>11</v>
-      </c>
-      <c r="C145" t="s">
-        <v>238</v>
-      </c>
-      <c r="D145">
-        <v>0</v>
-      </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-      <c r="F145" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>11</v>
-      </c>
-      <c r="C146" t="s">
-        <v>238</v>
-      </c>
-      <c r="D146">
-        <v>0</v>
-      </c>
-      <c r="E146">
-        <v>1</v>
-      </c>
-      <c r="F146" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/dataschema_ProPASS.xlsx
+++ b/dataschema_ProPASS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerom\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F943F93-3FDA-4787-8EB6-E9C88FFF4B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467FBF85-3688-413D-83C9-1E754650048E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7707491C-9770-4D56-A78F-0E298A8E82E6}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>label:en</t>
-  </si>
-  <si>
     <t>description:en</t>
   </si>
   <si>
@@ -1078,6 +1075,9 @@
   </si>
   <si>
     <t>Must be unique</t>
+  </si>
+  <si>
+    <t>label</t>
   </si>
 </sst>
 </file>
@@ -1460,8 +1460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666BFB20-618E-4AE1-9183-77E9539422F7}">
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,31 +1491,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1523,22 +1523,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
       <c r="L2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1546,28 +1546,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1575,25 +1575,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1601,28 +1601,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1630,25 +1630,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1656,25 +1656,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>36</v>
       </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1682,28 +1682,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s">
         <v>40</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1711,28 +1711,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>43</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
         <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1740,25 +1740,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
         <v>46</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>47</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>48</v>
       </c>
-      <c r="F10" t="s">
-        <v>49</v>
-      </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1766,25 +1766,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
         <v>50</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>51</v>
       </c>
-      <c r="E11" t="s">
-        <v>52</v>
-      </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1792,28 +1792,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
         <v>53</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>54</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" t="s">
         <v>55</v>
-      </c>
-      <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1821,25 +1821,25 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
         <v>57</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>58</v>
       </c>
-      <c r="E13" t="s">
-        <v>59</v>
-      </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1847,25 +1847,25 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
         <v>60</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>61</v>
       </c>
-      <c r="E14" t="s">
-        <v>62</v>
-      </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1873,25 +1873,25 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
         <v>63</v>
       </c>
-      <c r="D15" t="s">
-        <v>64</v>
-      </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1899,28 +1899,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
         <v>65</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" t="s">
         <v>66</v>
       </c>
-      <c r="E16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" t="s">
-        <v>67</v>
-      </c>
       <c r="I16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1928,25 +1928,25 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
         <v>68</v>
       </c>
-      <c r="D17" t="s">
-        <v>69</v>
-      </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1954,28 +1954,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
         <v>70</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
         <v>71</v>
       </c>
-      <c r="E18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" t="s">
-        <v>72</v>
-      </c>
       <c r="I18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1983,25 +1983,25 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
         <v>73</v>
       </c>
-      <c r="D19" t="s">
-        <v>74</v>
-      </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -2009,31 +2009,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
         <v>75</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" t="s">
         <v>76</v>
       </c>
-      <c r="E20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" t="s">
         <v>77</v>
-      </c>
-      <c r="I20" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -2041,28 +2041,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" t="s">
         <v>79</v>
       </c>
-      <c r="D21" t="s">
-        <v>80</v>
-      </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -2070,25 +2070,25 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" t="s">
         <v>81</v>
       </c>
-      <c r="D22" t="s">
-        <v>82</v>
-      </c>
       <c r="E22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2096,28 +2096,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
         <v>83</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" t="s">
         <v>84</v>
       </c>
-      <c r="E23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" t="s">
-        <v>85</v>
-      </c>
       <c r="I23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2125,25 +2125,25 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" t="s">
         <v>86</v>
       </c>
-      <c r="D24" t="s">
-        <v>87</v>
-      </c>
       <c r="E24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2151,31 +2151,31 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" t="s">
         <v>88</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>89</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" t="s">
         <v>90</v>
       </c>
-      <c r="F25" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" t="s">
         <v>91</v>
-      </c>
-      <c r="I25" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" t="s">
-        <v>23</v>
-      </c>
-      <c r="L25" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -2183,31 +2183,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" t="s">
         <v>93</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>94</v>
       </c>
-      <c r="E26" t="s">
-        <v>95</v>
-      </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G26" t="s">
+        <v>90</v>
+      </c>
+      <c r="I26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" t="s">
         <v>91</v>
-      </c>
-      <c r="I26" t="s">
-        <v>22</v>
-      </c>
-      <c r="K26" t="s">
-        <v>23</v>
-      </c>
-      <c r="L26" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2215,31 +2215,31 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" t="s">
         <v>96</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" t="s">
         <v>97</v>
       </c>
-      <c r="E27" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" t="s">
-        <v>98</v>
-      </c>
       <c r="I27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2247,31 +2247,31 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" t="s">
         <v>99</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" t="s">
         <v>100</v>
       </c>
-      <c r="E28" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" t="s">
-        <v>49</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" t="s">
         <v>101</v>
-      </c>
-      <c r="I28" t="s">
-        <v>22</v>
-      </c>
-      <c r="K28" t="s">
-        <v>23</v>
-      </c>
-      <c r="L28" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -2279,25 +2279,25 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" t="s">
         <v>103</v>
       </c>
-      <c r="D29" t="s">
-        <v>104</v>
-      </c>
       <c r="E29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2305,28 +2305,28 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" t="s">
         <v>105</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" t="s">
         <v>106</v>
       </c>
-      <c r="E30" t="s">
-        <v>106</v>
-      </c>
-      <c r="F30" t="s">
-        <v>49</v>
-      </c>
-      <c r="G30" t="s">
-        <v>107</v>
-      </c>
       <c r="I30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2334,28 +2334,28 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" t="s">
         <v>108</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" t="s">
         <v>109</v>
       </c>
-      <c r="E31" t="s">
-        <v>109</v>
-      </c>
-      <c r="F31" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" t="s">
-        <v>110</v>
-      </c>
       <c r="I31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2363,28 +2363,28 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" t="s">
         <v>111</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" t="s">
         <v>112</v>
       </c>
-      <c r="E32" t="s">
-        <v>112</v>
-      </c>
-      <c r="F32" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" t="s">
-        <v>113</v>
-      </c>
       <c r="I32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2392,28 +2392,28 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" t="s">
         <v>114</v>
       </c>
-      <c r="D33" t="s">
-        <v>115</v>
-      </c>
       <c r="E33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -2421,28 +2421,28 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" t="s">
         <v>116</v>
       </c>
-      <c r="D34" t="s">
-        <v>117</v>
-      </c>
       <c r="E34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2450,28 +2450,28 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" t="s">
         <v>118</v>
       </c>
-      <c r="D35" t="s">
-        <v>119</v>
-      </c>
       <c r="E35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2479,28 +2479,28 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" t="s">
         <v>120</v>
       </c>
-      <c r="D36" t="s">
-        <v>121</v>
-      </c>
       <c r="E36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2508,28 +2508,28 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" t="s">
         <v>122</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" t="s">
         <v>123</v>
       </c>
-      <c r="E37" t="s">
-        <v>123</v>
-      </c>
-      <c r="F37" t="s">
-        <v>49</v>
-      </c>
-      <c r="G37" t="s">
-        <v>124</v>
-      </c>
       <c r="I37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2537,28 +2537,28 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" t="s">
         <v>125</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>126</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s">
         <v>127</v>
       </c>
-      <c r="F38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" t="s">
-        <v>128</v>
-      </c>
       <c r="I38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2566,25 +2566,25 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" t="s">
         <v>129</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>130</v>
       </c>
-      <c r="E39" t="s">
-        <v>131</v>
-      </c>
       <c r="F39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2592,28 +2592,28 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" t="s">
         <v>132</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>133</v>
       </c>
-      <c r="E40" t="s">
-        <v>134</v>
-      </c>
       <c r="F40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2621,25 +2621,25 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" t="s">
         <v>135</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>136</v>
       </c>
-      <c r="E41" t="s">
-        <v>137</v>
-      </c>
       <c r="F41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2647,28 +2647,28 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" t="s">
         <v>138</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
+        <v>138</v>
+      </c>
+      <c r="F42" t="s">
+        <v>48</v>
+      </c>
+      <c r="G42" t="s">
         <v>139</v>
       </c>
-      <c r="E42" t="s">
-        <v>139</v>
-      </c>
-      <c r="F42" t="s">
-        <v>49</v>
-      </c>
-      <c r="G42" t="s">
-        <v>140</v>
-      </c>
       <c r="I42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2676,28 +2676,28 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" t="s">
         <v>141</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>142</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" t="s">
         <v>143</v>
       </c>
-      <c r="F43" t="s">
-        <v>49</v>
-      </c>
-      <c r="G43" t="s">
-        <v>144</v>
-      </c>
       <c r="I43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2705,25 +2705,25 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" t="s">
         <v>145</v>
       </c>
-      <c r="D44" t="s">
-        <v>146</v>
-      </c>
       <c r="E44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2731,28 +2731,28 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C45" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" t="s">
         <v>147</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>148</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45" t="s">
+        <v>22</v>
+      </c>
+      <c r="L45" t="s">
         <v>149</v>
-      </c>
-      <c r="F45" t="s">
-        <v>27</v>
-      </c>
-      <c r="I45" t="s">
-        <v>22</v>
-      </c>
-      <c r="K45" t="s">
-        <v>23</v>
-      </c>
-      <c r="L45" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2760,25 +2760,25 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" t="s">
         <v>151</v>
       </c>
-      <c r="D46" t="s">
-        <v>152</v>
-      </c>
       <c r="E46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2786,28 +2786,28 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
+        <v>152</v>
+      </c>
+      <c r="D47" t="s">
         <v>153</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
+        <v>153</v>
+      </c>
+      <c r="F47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s">
         <v>154</v>
       </c>
-      <c r="E47" t="s">
-        <v>154</v>
-      </c>
-      <c r="F47" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" t="s">
-        <v>155</v>
-      </c>
       <c r="I47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2815,25 +2815,25 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" t="s">
         <v>156</v>
       </c>
-      <c r="D48" t="s">
-        <v>157</v>
-      </c>
       <c r="E48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2841,28 +2841,28 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" t="s">
         <v>158</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>159</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" t="s">
+        <v>21</v>
+      </c>
+      <c r="K49" t="s">
+        <v>22</v>
+      </c>
+      <c r="L49" t="s">
         <v>160</v>
-      </c>
-      <c r="F49" t="s">
-        <v>27</v>
-      </c>
-      <c r="I49" t="s">
-        <v>22</v>
-      </c>
-      <c r="K49" t="s">
-        <v>23</v>
-      </c>
-      <c r="L49" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2870,28 +2870,28 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
+        <v>161</v>
+      </c>
+      <c r="D50" t="s">
         <v>162</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>163</v>
       </c>
-      <c r="E50" t="s">
-        <v>164</v>
-      </c>
       <c r="F50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2899,28 +2899,28 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
+        <v>164</v>
+      </c>
+      <c r="D51" t="s">
         <v>165</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>166</v>
       </c>
-      <c r="E51" t="s">
-        <v>167</v>
-      </c>
       <c r="F51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2928,28 +2928,28 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52" t="s">
         <v>168</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>169</v>
       </c>
-      <c r="E52" t="s">
-        <v>170</v>
-      </c>
       <c r="F52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -2957,28 +2957,28 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
+        <v>170</v>
+      </c>
+      <c r="D53" t="s">
         <v>171</v>
       </c>
-      <c r="D53" t="s">
-        <v>172</v>
-      </c>
       <c r="E53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -2986,25 +2986,25 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C54" t="s">
+        <v>172</v>
+      </c>
+      <c r="D54" t="s">
         <v>173</v>
       </c>
-      <c r="D54" t="s">
-        <v>174</v>
-      </c>
       <c r="E54" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -3012,25 +3012,25 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
+        <v>174</v>
+      </c>
+      <c r="D55" t="s">
         <v>175</v>
       </c>
-      <c r="D55" t="s">
-        <v>176</v>
-      </c>
       <c r="E55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -3038,25 +3038,25 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
+        <v>176</v>
+      </c>
+      <c r="D56" t="s">
         <v>177</v>
       </c>
-      <c r="D56" t="s">
-        <v>178</v>
-      </c>
       <c r="E56" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -3064,25 +3064,25 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57" t="s">
         <v>179</v>
       </c>
-      <c r="D57" t="s">
-        <v>180</v>
-      </c>
       <c r="E57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -3090,25 +3090,25 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
+        <v>180</v>
+      </c>
+      <c r="D58" t="s">
         <v>181</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>182</v>
       </c>
-      <c r="E58" t="s">
-        <v>183</v>
-      </c>
       <c r="F58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -3116,25 +3116,25 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
+        <v>183</v>
+      </c>
+      <c r="D59" t="s">
         <v>184</v>
       </c>
-      <c r="D59" t="s">
-        <v>185</v>
-      </c>
       <c r="E59" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -3142,25 +3142,25 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
+        <v>185</v>
+      </c>
+      <c r="D60" t="s">
         <v>186</v>
       </c>
-      <c r="D60" t="s">
-        <v>187</v>
-      </c>
       <c r="E60" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3168,25 +3168,25 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
+        <v>187</v>
+      </c>
+      <c r="D61" t="s">
         <v>188</v>
       </c>
-      <c r="D61" t="s">
-        <v>189</v>
-      </c>
       <c r="E61" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3194,25 +3194,25 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
+        <v>189</v>
+      </c>
+      <c r="D62" t="s">
         <v>190</v>
       </c>
-      <c r="D62" t="s">
-        <v>191</v>
-      </c>
       <c r="E62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -3220,25 +3220,25 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
+        <v>191</v>
+      </c>
+      <c r="D63" t="s">
         <v>192</v>
       </c>
-      <c r="D63" t="s">
-        <v>193</v>
-      </c>
       <c r="E63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -3246,25 +3246,25 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
+        <v>193</v>
+      </c>
+      <c r="D64" t="s">
         <v>194</v>
       </c>
-      <c r="D64" t="s">
-        <v>195</v>
-      </c>
       <c r="E64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -3272,25 +3272,25 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
+        <v>195</v>
+      </c>
+      <c r="D65" t="s">
         <v>196</v>
       </c>
-      <c r="D65" t="s">
-        <v>197</v>
-      </c>
       <c r="E65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3298,25 +3298,25 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
+        <v>197</v>
+      </c>
+      <c r="D66" t="s">
         <v>198</v>
       </c>
-      <c r="D66" t="s">
-        <v>199</v>
-      </c>
       <c r="E66" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3324,28 +3324,28 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
+        <v>199</v>
+      </c>
+      <c r="D67" t="s">
         <v>200</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
+        <v>200</v>
+      </c>
+      <c r="F67" t="s">
+        <v>48</v>
+      </c>
+      <c r="G67" t="s">
         <v>201</v>
       </c>
-      <c r="E67" t="s">
-        <v>201</v>
-      </c>
-      <c r="F67" t="s">
-        <v>49</v>
-      </c>
-      <c r="G67" t="s">
-        <v>202</v>
-      </c>
       <c r="I67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3353,25 +3353,25 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
+        <v>202</v>
+      </c>
+      <c r="D68" t="s">
         <v>203</v>
       </c>
-      <c r="D68" t="s">
-        <v>204</v>
-      </c>
       <c r="E68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3379,25 +3379,25 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s">
+        <v>204</v>
+      </c>
+      <c r="D69" t="s">
         <v>205</v>
       </c>
-      <c r="D69" t="s">
-        <v>206</v>
-      </c>
       <c r="E69" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F69" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -3405,28 +3405,28 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
+        <v>206</v>
+      </c>
+      <c r="D70" t="s">
         <v>207</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
+        <v>207</v>
+      </c>
+      <c r="F70" t="s">
+        <v>26</v>
+      </c>
+      <c r="I70" t="s">
+        <v>21</v>
+      </c>
+      <c r="K70" t="s">
+        <v>22</v>
+      </c>
+      <c r="L70" t="s">
         <v>208</v>
-      </c>
-      <c r="E70" t="s">
-        <v>208</v>
-      </c>
-      <c r="F70" t="s">
-        <v>27</v>
-      </c>
-      <c r="I70" t="s">
-        <v>22</v>
-      </c>
-      <c r="K70" t="s">
-        <v>23</v>
-      </c>
-      <c r="L70" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3434,25 +3434,25 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
+        <v>209</v>
+      </c>
+      <c r="D71" t="s">
         <v>210</v>
       </c>
-      <c r="D71" t="s">
-        <v>211</v>
-      </c>
       <c r="E71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3460,25 +3460,25 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
+        <v>211</v>
+      </c>
+      <c r="D72" t="s">
         <v>212</v>
       </c>
-      <c r="D72" t="s">
-        <v>213</v>
-      </c>
       <c r="E72" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F72" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -3486,25 +3486,25 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
+        <v>213</v>
+      </c>
+      <c r="D73" t="s">
         <v>214</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>215</v>
       </c>
-      <c r="E73" t="s">
-        <v>216</v>
-      </c>
       <c r="F73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K73" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -3512,28 +3512,28 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
+        <v>216</v>
+      </c>
+      <c r="D74" t="s">
         <v>217</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>218</v>
       </c>
-      <c r="E74" t="s">
-        <v>219</v>
-      </c>
       <c r="F74" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -3541,28 +3541,28 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C75" t="s">
+        <v>219</v>
+      </c>
+      <c r="D75" t="s">
         <v>220</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>221</v>
       </c>
-      <c r="E75" t="s">
-        <v>222</v>
-      </c>
       <c r="F75" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L75" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -3570,31 +3570,31 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C76" t="s">
+        <v>222</v>
+      </c>
+      <c r="D76" t="s">
         <v>223</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>224</v>
       </c>
-      <c r="E76" t="s">
-        <v>225</v>
-      </c>
       <c r="F76" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G76" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K76" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L76" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -3602,25 +3602,25 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C77" t="s">
+        <v>225</v>
+      </c>
+      <c r="D77" t="s">
         <v>226</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>227</v>
       </c>
-      <c r="E77" t="s">
-        <v>228</v>
-      </c>
       <c r="F77" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -3628,25 +3628,25 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
+        <v>228</v>
+      </c>
+      <c r="D78" t="s">
         <v>229</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>230</v>
       </c>
-      <c r="E78" t="s">
-        <v>231</v>
-      </c>
       <c r="F78" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -3654,25 +3654,25 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C79" t="s">
+        <v>231</v>
+      </c>
+      <c r="D79" t="s">
         <v>232</v>
       </c>
-      <c r="D79" t="s">
-        <v>233</v>
-      </c>
       <c r="E79" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F79" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -3680,28 +3680,28 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
+        <v>233</v>
+      </c>
+      <c r="D80" t="s">
         <v>234</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>235</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
+        <v>26</v>
+      </c>
+      <c r="I80" t="s">
+        <v>21</v>
+      </c>
+      <c r="K80" t="s">
+        <v>22</v>
+      </c>
+      <c r="L80" t="s">
         <v>236</v>
-      </c>
-      <c r="F80" t="s">
-        <v>27</v>
-      </c>
-      <c r="I80" t="s">
-        <v>22</v>
-      </c>
-      <c r="K80" t="s">
-        <v>23</v>
-      </c>
-      <c r="L80" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -3709,25 +3709,25 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
+        <v>237</v>
+      </c>
+      <c r="D81" t="s">
         <v>238</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>239</v>
       </c>
-      <c r="E81" t="s">
-        <v>240</v>
-      </c>
       <c r="F81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K81" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -3735,28 +3735,28 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
+        <v>240</v>
+      </c>
+      <c r="D82" t="s">
         <v>241</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>242</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
+        <v>26</v>
+      </c>
+      <c r="I82" t="s">
+        <v>21</v>
+      </c>
+      <c r="K82" t="s">
+        <v>22</v>
+      </c>
+      <c r="L82" t="s">
         <v>243</v>
-      </c>
-      <c r="F82" t="s">
-        <v>27</v>
-      </c>
-      <c r="I82" t="s">
-        <v>22</v>
-      </c>
-      <c r="K82" t="s">
-        <v>23</v>
-      </c>
-      <c r="L82" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -3764,25 +3764,25 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s">
+        <v>244</v>
+      </c>
+      <c r="D83" t="s">
         <v>245</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>246</v>
       </c>
-      <c r="E83" t="s">
-        <v>247</v>
-      </c>
       <c r="F83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -3790,28 +3790,28 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C84" t="s">
+        <v>247</v>
+      </c>
+      <c r="D84" t="s">
         <v>248</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>249</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
+        <v>26</v>
+      </c>
+      <c r="G84" t="s">
         <v>250</v>
       </c>
-      <c r="F84" t="s">
-        <v>27</v>
-      </c>
-      <c r="G84" t="s">
-        <v>251</v>
-      </c>
       <c r="I84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3823,8 +3823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB3AC2F-11B9-429E-B121-A915E3C155EB}">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3839,30 +3839,30 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3871,15 +3871,15 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -3888,15 +3888,15 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3905,15 +3905,15 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -3922,15 +3922,15 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3939,15 +3939,15 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3956,15 +3956,15 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -3973,15 +3973,15 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -3990,15 +3990,15 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -4007,15 +4007,15 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -4024,15 +4024,15 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -4041,15 +4041,15 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -4058,15 +4058,15 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -4075,15 +4075,15 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -4092,15 +4092,15 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -4109,15 +4109,15 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -4126,15 +4126,15 @@
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -4143,15 +4143,15 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -4160,15 +4160,15 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -4177,15 +4177,15 @@
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -4194,15 +4194,15 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -4211,15 +4211,15 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -4228,15 +4228,15 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -4245,15 +4245,15 @@
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -4262,15 +4262,15 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4279,15 +4279,15 @@
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4296,15 +4296,15 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4313,15 +4313,15 @@
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4330,15 +4330,15 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4347,15 +4347,15 @@
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4364,15 +4364,15 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4381,15 +4381,15 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -4398,15 +4398,15 @@
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -4415,15 +4415,15 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -4432,15 +4432,15 @@
         <v>2</v>
       </c>
       <c r="F35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -4449,15 +4449,15 @@
         <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -4466,15 +4466,15 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -4483,15 +4483,15 @@
         <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -4500,15 +4500,15 @@
         <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -4517,15 +4517,15 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -4534,15 +4534,15 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -4551,15 +4551,15 @@
         <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -4568,15 +4568,15 @@
         <v>3</v>
       </c>
       <c r="F43" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -4585,15 +4585,15 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -4602,15 +4602,15 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -4619,15 +4619,15 @@
         <v>2</v>
       </c>
       <c r="F46" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -4636,15 +4636,15 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -4653,15 +4653,15 @@
         <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -4670,15 +4670,15 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -4687,15 +4687,15 @@
         <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -4704,15 +4704,15 @@
         <v>3</v>
       </c>
       <c r="F51" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -4721,15 +4721,15 @@
         <v>4</v>
       </c>
       <c r="F52" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -4738,15 +4738,15 @@
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -4755,15 +4755,15 @@
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -4772,15 +4772,15 @@
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -4789,15 +4789,15 @@
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -4806,15 +4806,15 @@
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -4823,15 +4823,15 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -4840,15 +4840,15 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -4857,15 +4857,15 @@
         <v>2</v>
       </c>
       <c r="F60" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -4874,15 +4874,15 @@
         <v>3</v>
       </c>
       <c r="F61" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -4891,15 +4891,15 @@
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -4908,15 +4908,15 @@
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -4925,15 +4925,15 @@
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -4942,15 +4942,15 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -4959,15 +4959,15 @@
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -4976,15 +4976,15 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -4993,15 +4993,15 @@
         <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -5010,15 +5010,15 @@
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -5027,15 +5027,15 @@
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -5044,15 +5044,15 @@
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -5061,15 +5061,15 @@
         <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -5078,15 +5078,15 @@
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -5095,15 +5095,15 @@
         <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -5112,15 +5112,15 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -5129,15 +5129,15 @@
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -5146,15 +5146,15 @@
         <v>2</v>
       </c>
       <c r="F77" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -5163,15 +5163,15 @@
         <v>3</v>
       </c>
       <c r="F78" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -5180,15 +5180,15 @@
         <v>4</v>
       </c>
       <c r="F79" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -5197,15 +5197,15 @@
         <v>5</v>
       </c>
       <c r="F80" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -5214,15 +5214,15 @@
         <v>6</v>
       </c>
       <c r="F81" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -5231,15 +5231,15 @@
         <v>7</v>
       </c>
       <c r="F82" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -5248,15 +5248,15 @@
         <v>8</v>
       </c>
       <c r="F83" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -5265,15 +5265,15 @@
         <v>9</v>
       </c>
       <c r="F84" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -5282,15 +5282,15 @@
         <v>0</v>
       </c>
       <c r="F85" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -5299,15 +5299,15 @@
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -5316,15 +5316,15 @@
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -5333,15 +5333,15 @@
         <v>2</v>
       </c>
       <c r="F88" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -5350,15 +5350,15 @@
         <v>3</v>
       </c>
       <c r="F89" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -5367,15 +5367,15 @@
         <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -5384,15 +5384,15 @@
         <v>2</v>
       </c>
       <c r="F91" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -5401,15 +5401,15 @@
         <v>3</v>
       </c>
       <c r="F92" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -5418,15 +5418,15 @@
         <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -5435,15 +5435,15 @@
         <v>2</v>
       </c>
       <c r="F94" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -5452,15 +5452,15 @@
         <v>3</v>
       </c>
       <c r="F95" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -5469,15 +5469,15 @@
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -5486,15 +5486,15 @@
         <v>2</v>
       </c>
       <c r="F97" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -5503,15 +5503,15 @@
         <v>3</v>
       </c>
       <c r="F98" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -5520,15 +5520,15 @@
         <v>4</v>
       </c>
       <c r="F99" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -5537,15 +5537,15 @@
         <v>5</v>
       </c>
       <c r="F100" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -5554,15 +5554,15 @@
         <v>6</v>
       </c>
       <c r="F101" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -5571,15 +5571,15 @@
         <v>7</v>
       </c>
       <c r="F102" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C103" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -5588,15 +5588,15 @@
         <v>8</v>
       </c>
       <c r="F103" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -5605,15 +5605,15 @@
         <v>9</v>
       </c>
       <c r="F104" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -5622,15 +5622,15 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -5639,15 +5639,15 @@
         <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C107" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -5656,15 +5656,15 @@
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C108" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -5673,15 +5673,15 @@
         <v>2</v>
       </c>
       <c r="F108" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C109" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -5690,15 +5690,15 @@
         <v>3</v>
       </c>
       <c r="F109" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C110" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -5707,15 +5707,15 @@
         <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C111" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -5724,15 +5724,15 @@
         <v>2</v>
       </c>
       <c r="F111" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C112" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -5741,15 +5741,15 @@
         <v>3</v>
       </c>
       <c r="F112" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C113" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -5758,15 +5758,15 @@
         <v>0</v>
       </c>
       <c r="F113" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C114" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -5775,15 +5775,15 @@
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C115" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -5792,15 +5792,15 @@
         <v>2</v>
       </c>
       <c r="F115" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C116" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -5809,15 +5809,15 @@
         <v>3</v>
       </c>
       <c r="F116" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C117" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -5826,15 +5826,15 @@
         <v>4</v>
       </c>
       <c r="F117" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C118" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -5843,15 +5843,15 @@
         <v>5</v>
       </c>
       <c r="F118" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -5860,15 +5860,15 @@
         <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C120" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -5877,15 +5877,15 @@
         <v>2</v>
       </c>
       <c r="F120" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C121" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -5894,15 +5894,15 @@
         <v>3</v>
       </c>
       <c r="F121" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -5911,15 +5911,15 @@
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C123" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -5928,15 +5928,15 @@
         <v>2</v>
       </c>
       <c r="F123" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C124" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -5945,15 +5945,15 @@
         <v>3</v>
       </c>
       <c r="F124" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C125" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -5962,15 +5962,15 @@
         <v>4</v>
       </c>
       <c r="F125" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C126" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -5979,15 +5979,15 @@
         <v>0</v>
       </c>
       <c r="F126" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C127" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -5996,15 +5996,15 @@
         <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C128" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -6013,15 +6013,15 @@
         <v>0</v>
       </c>
       <c r="F128" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C129" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -6030,15 +6030,15 @@
         <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C130" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -6047,15 +6047,15 @@
         <v>0</v>
       </c>
       <c r="F130" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C131" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -6064,7 +6064,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/dataschema_ProPASS.xlsx
+++ b/dataschema_ProPASS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467FBF85-3688-413D-83C9-1E754650048E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAF51F3-B30D-4E1B-AF69-FD0EDC49B5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7707491C-9770-4D56-A78F-0E298A8E82E6}"/>
   </bookViews>
@@ -1460,8 +1460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666BFB20-618E-4AE1-9183-77E9539422F7}">
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2798,7 +2798,7 @@
         <v>153</v>
       </c>
       <c r="F47" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G47" t="s">
         <v>154</v>

--- a/dataschema_ProPASS.xlsx
+++ b/dataschema_ProPASS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAF51F3-B30D-4E1B-AF69-FD0EDC49B5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634FDC8C-65DD-4787-ADDB-0F31EADEBD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7707491C-9770-4D56-A78F-0E298A8E82E6}"/>
   </bookViews>
@@ -1460,8 +1460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666BFB20-618E-4AE1-9183-77E9539422F7}">
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2549,7 +2549,7 @@
         <v>126</v>
       </c>
       <c r="F38" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G38" t="s">
         <v>127</v>
@@ -2604,7 +2604,7 @@
         <v>133</v>
       </c>
       <c r="F40" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G40" t="s">
         <v>127</v>
@@ -3823,8 +3823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB3AC2F-11B9-429E-B121-A915E3C155EB}">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4534,7 +4534,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -4551,7 +4551,7 @@
         <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
